--- a/language.xlsx
+++ b/language.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xuat file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C731EB8-455C-4732-B388-D8B422F95411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F1AB70-7DAA-40C2-B3E0-DA3F09D6615B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BA8215EF-F794-4127-8002-7E9A1578668F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12110" uniqueCount="9800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12565" uniqueCount="10216">
   <si>
     <t>Arabic (ar)</t>
   </si>
@@ -29425,13 +29425,1261 @@
   </si>
   <si>
     <t>Якщо ви вийдете, вам доведеться повторно реєструвати свій обліковий запис та видалити всю інформацію.</t>
+  </si>
+  <si>
+    <t>are_you_sure_you_want_to_sign_out?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to sign out?</t>
+  </si>
+  <si>
+    <t>compatible_users_will_continue_to_see_you_in_the_last_identified_location.</t>
+  </si>
+  <si>
+    <t>Compatible users will continue to see you in the last identified location.</t>
+  </si>
+  <si>
+    <t>Người dùng tương thích sẽ tiếp tục gặp bạn ở vị trí được xác định cuối cùng.</t>
+  </si>
+  <si>
+    <t>سيستمر المستخدمون المتوافقون في رؤيتك في الموقع المحدد الأخير.</t>
+  </si>
+  <si>
+    <t>Els usuaris compatibles us continuaran veient a la darrera ubicació identificada.</t>
+  </si>
+  <si>
+    <t>兼容的用户将继续在最后确定的位置与您见面。</t>
+  </si>
+  <si>
+    <t>兼容的用戶將繼續在最後確定的位置與您見面。</t>
+  </si>
+  <si>
+    <t>Kompatibilni korisnici i dalje će vas vidjeti na posljednjem identificiranom mjestu.</t>
+  </si>
+  <si>
+    <t>Kompatible brugere vil fortsat se dig på det sidst identificerede sted.</t>
+  </si>
+  <si>
+    <t>Compatibele gebruikers zullen u blijven zien op de laatste geïdentificeerde locatie.</t>
+  </si>
+  <si>
+    <t>Yhteensopivat käyttäjät näkevät sinut edelleen viimeisimmässä tunnistetussa paikassa.</t>
+  </si>
+  <si>
+    <t>Les utilisateurs compatibles continueront de vous voir dans le dernier emplacement identifié.</t>
+  </si>
+  <si>
+    <t>Kompatible Benutzer sehen Sie weiterhin am letzten identifizierten Ort.</t>
+  </si>
+  <si>
+    <t>Οι συμβατοί χρήστες θα συνεχίσουν να σας βλέπουν στην τελευταία τοποθεσία.</t>
+  </si>
+  <si>
+    <t>संगत उपयोगकर्ता आपको अंतिम पहचाने गए स्थान पर देखना जारी रखेंगे।</t>
+  </si>
+  <si>
+    <t>A kompatibilis felhasználók továbbra is találkoznak az utolsó azonosított helyen.</t>
+  </si>
+  <si>
+    <t>Pengguna yang kompatibel akan terus melihat Anda di lokasi yang diidentifikasi terakhir.</t>
+  </si>
+  <si>
+    <t>Gli utenti compatibili continueranno a vederti nell'ultima posizione identificata.</t>
+  </si>
+  <si>
+    <t>互換性のあるユーザーは、最後に識別された場所で引き続きお客様に会います。</t>
+  </si>
+  <si>
+    <t>호환되는 사용자는 마지막으로 식별 된 위치에서 계속 보게 될 것입니다.</t>
+  </si>
+  <si>
+    <t>Pengguna yang serasi akan terus melihat anda di lokasi yang dikenal pasti terakhir.</t>
+  </si>
+  <si>
+    <t>Kompatible brukere vil fortsette å se deg på det siste identifiserte stedet.</t>
+  </si>
+  <si>
+    <t>Kompatybilni użytkownicy będą nadal widzieć w ostatniej zidentyfikowanej lokalizacji.</t>
+  </si>
+  <si>
+    <t>Usuários compatíveis continuarão a vê -lo no último local identificado.</t>
+  </si>
+  <si>
+    <t>Utilizatorii compatibili vor continua să vă vadă în ultima locație identificată.</t>
+  </si>
+  <si>
+    <t>Совместимые пользователи будут продолжать видеть вас в последнем идентифицированном месте.</t>
+  </si>
+  <si>
+    <t>Kompatibilní používatelia vás budú naďalej vidieť na poslednom identifikovanom mieste.</t>
+  </si>
+  <si>
+    <t>Los usuarios compatibles continuarán viéndolo en la última ubicación identificada.</t>
+  </si>
+  <si>
+    <t>Kompatibla användare kommer att fortsätta se dig på den sista identifierade platsen.</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ที่เข้ากันได้จะยังคงพบคุณในตำแหน่งที่ระบุล่าสุด</t>
+  </si>
+  <si>
+    <t>Uyumlu kullanıcılar sizi en son belirlenen yerde görmeye devam edecektir.</t>
+  </si>
+  <si>
+    <t>Сумісні користувачі продовжуватимуть бачити вас в останньому ідентифікованому місці.</t>
+  </si>
+  <si>
+    <t>delete_my_account</t>
+  </si>
+  <si>
+    <t>Delete my account</t>
+  </si>
+  <si>
+    <t>Xóa tài khoản của tôi đi</t>
+  </si>
+  <si>
+    <t>احذف حسابي</t>
+  </si>
+  <si>
+    <t>Suprimeix el meu compte</t>
+  </si>
+  <si>
+    <t>删除我的账户</t>
+  </si>
+  <si>
+    <t>刪除我的賬戶</t>
+  </si>
+  <si>
+    <t>Izbriši moj račun</t>
+  </si>
+  <si>
+    <t>Slet min konto</t>
+  </si>
+  <si>
+    <t>Verwijder mijn account</t>
+  </si>
+  <si>
+    <t>Poista minun tilini</t>
+  </si>
+  <si>
+    <t>Supprimer mon compte</t>
+  </si>
+  <si>
+    <t>Löschen Sie mein Konto</t>
+  </si>
+  <si>
+    <t>Διάγραψε τον λογαριασμό μου</t>
+  </si>
+  <si>
+    <t>मेरा एकाउंट हटा दो</t>
+  </si>
+  <si>
+    <t>A fiókom törlése</t>
+  </si>
+  <si>
+    <t>Hapus akun Saya</t>
+  </si>
+  <si>
+    <t>Cancella il mio account</t>
+  </si>
+  <si>
+    <t>アカウントを削除します</t>
+  </si>
+  <si>
+    <t>계정을 삭제하다</t>
+  </si>
+  <si>
+    <t>Padamkan akaun saya</t>
+  </si>
+  <si>
+    <t>Slett kontoen min</t>
+  </si>
+  <si>
+    <t>Usuń moje konto</t>
+  </si>
+  <si>
+    <t>Deletar minha conta</t>
+  </si>
+  <si>
+    <t>Sterge contul meu</t>
+  </si>
+  <si>
+    <t>Удалите мой аккаунт</t>
+  </si>
+  <si>
+    <t>Odstrániť môj účet</t>
+  </si>
+  <si>
+    <t>Borrar mi cuenta</t>
+  </si>
+  <si>
+    <t>Ta bort mitt konto</t>
+  </si>
+  <si>
+    <t>ลบบัญชีของฉัน</t>
+  </si>
+  <si>
+    <t>Hesabımı sil</t>
+  </si>
+  <si>
+    <t>Видаліть мій рахунок</t>
+  </si>
+  <si>
+    <t>if_you_want_to_keep_the_account_but_not_visible_to_others,_you_can_choose_to_hide_the_account._you_can_disable_this_feature_in_the_settings.</t>
+  </si>
+  <si>
+    <t>If you want to keep the account but not visible to others, you can choose to hide the account. You can disable this feature in the settings.</t>
+  </si>
+  <si>
+    <t>Nếu bạn muốn giữ tài khoản nhưng không hiển thị cho người khác, bạn có thể chọn ẩn tài khoản. Bạn có thể vô hiệu hóa tính năng này trong cài đặt.</t>
+  </si>
+  <si>
+    <t>إذا كنت ترغب في الاحتفاظ بالحساب ولكن غير مرئي للآخرين ، فيمكنك اختيار إخفاء الحساب. يمكنك تعطيل هذه الميزة في الإعدادات.</t>
+  </si>
+  <si>
+    <t>Si voleu conservar el compte, però no visible per als altres, podeu optar per ocultar el compte. Podeu desactivar aquesta funció a la configuració.</t>
+  </si>
+  <si>
+    <t>如果您想保留该帐户但对其他人看不到，则可以选择隐藏帐户。您可以在设置中禁用此功能。</t>
+  </si>
+  <si>
+    <t>如果您想保留該帳戶但對其他人看不到，則可以選擇隱藏帳戶。您可以在設置中禁用此功能。</t>
+  </si>
+  <si>
+    <t>Ako želite zadržati račun, ali nije vidljiv drugima, možete sakriti račun. Ovu značajku možete onemogućiti u postavkama.</t>
+  </si>
+  <si>
+    <t>Hvis du vil beholde kontoen, men ikke er synlig for andre, kan du vælge at skjule kontoen. Du kan deaktivere denne funktion i indstillingerne.</t>
+  </si>
+  <si>
+    <t>Als u het account wilt behouden maar niet zichtbaar voor anderen wilt, kunt u ervoor kiezen om het account te verbergen. U kunt deze functie in de instellingen uitschakelen.</t>
+  </si>
+  <si>
+    <t>Jos haluat pitää tilin, mutta et ole näkyvissä muille, voit piilottaa tilin. Voit poistaa tämän ominaisuuden käytöstä asetuksissa.</t>
+  </si>
+  <si>
+    <t>Si vous souhaitez conserver le compte mais pas visible pour les autres, vous pouvez choisir de masquer le compte. Vous pouvez désactiver cette fonctionnalité dans les paramètres.</t>
+  </si>
+  <si>
+    <t>Wenn Sie das Konto beibehalten möchten, aber für andere nicht sichtbar sind, können Sie das Konto verbergen. Sie können diese Funktion in den Einstellungen deaktivieren.</t>
+  </si>
+  <si>
+    <t>Εάν θέλετε να διατηρήσετε τον λογαριασμό αλλά δεν είναι ορατό σε άλλους, μπορείτε να επιλέξετε να αποκρύψετε το λογαριασμό. Μπορείτε να απενεργοποιήσετε αυτήν τη λειτουργία στις ρυθμίσεις.</t>
+  </si>
+  <si>
+    <t>यदि आप खाता रखना चाहते हैं लेकिन दूसरों को दिखाई नहीं देते हैं, तो आप खाता छिपाने के लिए चुन सकते हैं। आप इस सुविधा को सेटिंग्स में अक्षम कर सकते हैं।</t>
+  </si>
+  <si>
+    <t>Ha szeretné megtartani a fiókot, de nem látható mások számára, akkor dönthet úgy, hogy elrejti a fiókot. Ezt a funkciót letilthatja a beállításokban.</t>
+  </si>
+  <si>
+    <t>Jika Anda ingin menyimpan akun tetapi tidak terlihat oleh orang lain, Anda dapat memilih untuk menyembunyikan akun. Anda dapat menonaktifkan fitur ini di pengaturan.</t>
+  </si>
+  <si>
+    <t>Se vuoi mantenere l'account ma non visibile agli altri, puoi scegliere di nascondere l'account. È possibile disabilitare questa funzione nelle impostazioni.</t>
+  </si>
+  <si>
+    <t>アカウントを保持したいが、他の人には表示されない場合は、アカウントを非表示にすることを選択できます。この機能を設定で無効にすることができます。</t>
+  </si>
+  <si>
+    <t>계정을 유지하려고하지만 다른 사람에게는 보이지 않으면 계정을 숨기도록 선택할 수 있습니다. 설정 에서이 기능을 비활성화 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Jika anda ingin menyimpan akaun tetapi tidak dapat dilihat oleh orang lain, anda boleh memilih untuk menyembunyikan akaun. Anda boleh melumpuhkan ciri ini dalam tetapan.</t>
+  </si>
+  <si>
+    <t>Hvis du vil beholde kontoen, men ikke synlig for andre, kan du velge å skjule kontoen. Du kan deaktivere denne funksjonen i innstillingene.</t>
+  </si>
+  <si>
+    <t>Jeśli chcesz zachować konto, ale nie jest widoczne dla innych, możesz ukryć konto. Możesz wyłączyć tę funkcję w ustawieniach.</t>
+  </si>
+  <si>
+    <t>Se você deseja manter a conta, mas não visível para outras pessoas, pode optar por ocultar a conta. Você pode desativar esse recurso nas configurações.</t>
+  </si>
+  <si>
+    <t>Dacă doriți să păstrați contul, dar nu vizibil pentru alții, puteți alege să ascundeți contul. Puteți dezactiva această caracteristică în setări.</t>
+  </si>
+  <si>
+    <t>Если вы хотите сохранить учетную запись, но не виден для других, вы можете скрыть учетную запись. Вы можете отключить эту функцию в настройках.</t>
+  </si>
+  <si>
+    <t>Ak si chcete účet ponechať, ale nie je viditeľný pre ostatných, môžete si zvoliť skrytie účtu. Túto funkciu môžete zakázať v nastaveniach.</t>
+  </si>
+  <si>
+    <t>Si desea mantener la cuenta pero no visible para los demás, puede optar por ocultar la cuenta. Puede deshabilitar esta función en la configuración.</t>
+  </si>
+  <si>
+    <t>Om du vill behålla kontot men inte är synligt för andra kan du välja att dölja kontot. Du kan inaktivera den här funktionen i inställningarna.</t>
+  </si>
+  <si>
+    <t>หากคุณต้องการเก็บบัญชีไว้ แต่ไม่สามารถมองเห็นได้สำหรับผู้อื่นคุณสามารถเลือกที่จะซ่อนบัญชี คุณสามารถปิดการใช้งานคุณสมบัตินี้ในการตั้งค่า</t>
+  </si>
+  <si>
+    <t>Hesabı saklamak istiyorsanız, ancak başkaları tarafından görünür değilse, hesabı gizlemeyi seçebilirsiniz. Bu özelliği ayarlarda devre dışı bırakabilirsiniz.</t>
+  </si>
+  <si>
+    <t>Якщо ви хочете зберегти обліковий запис, але не видно іншим, ви можете вибрати, щоб приховати рахунок. Ви можете відключити цю функцію в налаштуваннях.</t>
+  </si>
+  <si>
+    <t>please_verify</t>
+  </si>
+  <si>
+    <t>Please verify</t>
+  </si>
+  <si>
+    <t>Xin vui lòng xác minh</t>
+  </si>
+  <si>
+    <t>ارجوك تحقق</t>
+  </si>
+  <si>
+    <t>Verifiqueu -ho</t>
+  </si>
+  <si>
+    <t>请验证</t>
+  </si>
+  <si>
+    <t>請驗證</t>
+  </si>
+  <si>
+    <t>Molimo provjerite</t>
+  </si>
+  <si>
+    <t>Bekræft venligst</t>
+  </si>
+  <si>
+    <t>Aub controleren</t>
+  </si>
+  <si>
+    <t>Tarkista</t>
+  </si>
+  <si>
+    <t>Veuillez vérifier</t>
+  </si>
+  <si>
+    <t>Bitte überprüfen</t>
+  </si>
+  <si>
+    <t>Παρακαλώ επαληθεύστε</t>
+  </si>
+  <si>
+    <t>कृपया पुष्टि</t>
+  </si>
+  <si>
+    <t>Kérjük, ellenőrizze</t>
+  </si>
+  <si>
+    <t>Harap verifikasi</t>
+  </si>
+  <si>
+    <t>Si prega di verificare</t>
+  </si>
+  <si>
+    <t>確認してください</t>
+  </si>
+  <si>
+    <t>확인 부탁합니다</t>
+  </si>
+  <si>
+    <t>Sila sahkan</t>
+  </si>
+  <si>
+    <t>Vennligst bekreft</t>
+  </si>
+  <si>
+    <t>Proszę zweryfikuj</t>
+  </si>
+  <si>
+    <t>Por favor verifique</t>
+  </si>
+  <si>
+    <t>Te rog sa verifici</t>
+  </si>
+  <si>
+    <t>Пожалуйста, подтвердите</t>
+  </si>
+  <si>
+    <t>Prosím overte</t>
+  </si>
+  <si>
+    <t>Por favor verificar</t>
+  </si>
+  <si>
+    <t>Var vänlig och verifiera</t>
+  </si>
+  <si>
+    <t>กรุณายืนยัน</t>
+  </si>
+  <si>
+    <t>Lütfen tanımla</t>
+  </si>
+  <si>
+    <t>Будь ласка, перевірте</t>
+  </si>
+  <si>
+    <t>help_us_protect_the_tinder_community_by_proving_you're_using_an_original_photo._you_just_need_to_record_a_selfie_video._if_your_selfie_video_matches_your_profile_photo,_you'll_be_verified!</t>
+  </si>
+  <si>
+    <t>Help us protect the Tinder community by proving you're using an original photo. You just need to record a selfie video. If your selfie video matches your profile photo, you'll be verified!</t>
+  </si>
+  <si>
+    <t>Giúp chúng tôi bảo vệ cộng đồng Tinder bằng cách chứng minh bạn đang sử dụng ảnh gốc. Bạn chỉ cần ghi lại một video selfie. Nếu video selfie của bạn phù hợp với ảnh hồ sơ của bạn, bạn sẽ được xác minh!</t>
+  </si>
+  <si>
+    <t>ساعدنا في حماية مجتمع Tinder من خلال إثبات أنك تستخدم صورة أصلية. تحتاج فقط إلى تسجيل فيديو صورة شخصية. إذا كان مقطع الفيديو الخاص بك يتطابق مع صورة ملفك الشخصي ، فسوف يتم التحقق منه!</t>
+  </si>
+  <si>
+    <t>Ajudeu -nos a protegir la comunitat Tinder demostrant que utilitzeu una foto original. Només cal gravar un vídeo selfie. Si el vostre vídeo selfie coincideix amb la vostra foto de perfil, se us comprovarà.</t>
+  </si>
+  <si>
+    <t>通过证明您使用原始照片来帮助我们保护Tinder社区。您只需要录制自拍视频即可。如果您的自拍视频与您的个人资料照片相匹配，您将得到验证！</t>
+  </si>
+  <si>
+    <t>通過證明您使用原始照片來幫助我們保護Tinder社區。您只需要錄製自拍視頻即可。如果您的自拍視頻與您的個人資料照片相匹配，您將得到驗證！</t>
+  </si>
+  <si>
+    <t>Pomozite nam da zaštitimo zajednicu Tinder dokazujući da koristite originalnu fotografiju. Samo trebate snimiti selfie video. Ako vaš selfie video odgovara vašoj fotografiji profila, bit ćete provjereni!</t>
+  </si>
+  <si>
+    <t>Hjælp os med at beskytte Tinder -samfundet ved at bevise, at du bruger et originalt foto. Du skal bare optage en selfie -video. Hvis din selfie -video matcher dit profilfoto, bliver du verificeret!</t>
+  </si>
+  <si>
+    <t>Help ons de Tinder -gemeenschap te beschermen door te bewijzen dat u een originele foto gebruikt. Je hoeft alleen maar een selfie -video op te nemen. Als je selfie -video overeenkomt met je profielfoto, word je geverifieerd!</t>
+  </si>
+  <si>
+    <t>Auta meitä suojelemaan Tinder -yhteisöä todistamalla, että käytät alkuperäistä kuvaa. Sinun täytyy vain nauhoittaa selfie -video. Jos selfie -videosi vastaa profiilikuvaa, sinut vahvistetaan!</t>
+  </si>
+  <si>
+    <t>Aidez-nous à protéger la communauté Tinder en prouvant que vous utilisez une photo originale. Il vous suffit d'enregistrer une vidéo de selfie. Si votre vidéo selfie correspond à votre photo de profil, vous serez vérifié!</t>
+  </si>
+  <si>
+    <t>Helfen Sie uns, die Zunder -Community zu schützen, indem Sie beweisen, dass Sie ein Originalfoto verwenden. Sie müssen nur ein Selfie -Video aufnehmen. Wenn Ihr Selfie -Video Ihrem Profilfoto entspricht, werden Sie verifiziert!</t>
+  </si>
+  <si>
+    <t>Βοηθήστε μας να προστατεύσουμε την κοινότητα Tinder, αποδεικνύοντας ότι χρησιμοποιείτε μια πρωτότυπη φωτογραφία. Απλά πρέπει να καταγράψετε ένα βίντεο selfie. Εάν το βίντεο selfie σας ταιριάζει με τη φωτογραφία του προφίλ σας, θα επαληθευτείτε!</t>
+  </si>
+  <si>
+    <t>आप एक मूल फोटो का उपयोग करने से साबित करके टिंडर समुदाय की रक्षा करने में हमारी मदद करें। आपको बस एक सेल्फी वीडियो रिकॉर्ड करने की आवश्यकता है। यदि आपका सेल्फी वीडियो आपके प्रोफ़ाइल फ़ोटो से मेल खाता है, तो आपको सत्यापित किया जाएगा!</t>
+  </si>
+  <si>
+    <t>Segítsen megvédeni a Tinder közösséget azáltal, hogy bebizonyítja, hogy eredeti fényképet használ. Csak egy szelfi videót kell rögzítenie. Ha a szelfi videó megegyezik a profilfotóval, akkor ellenőrizni fogja!</t>
+  </si>
+  <si>
+    <t>Bantu kami melindungi komunitas Tinder dengan membuktikan bahwa Anda menggunakan foto asli. Anda hanya perlu merekam video selfie. Jika video selfie Anda cocok dengan foto profil Anda, Anda akan diverifikasi!</t>
+  </si>
+  <si>
+    <t>Aiutaci a proteggere la comunità di Tinder dimostrando che stai usando una foto originale. Devi solo registrare un video selfie. Se il tuo video selfie corrisponde alla tua foto del profilo, verrai verificato!</t>
+  </si>
+  <si>
+    <t>オリジナルの写真を使用していることを証明することで、Tinderコミュニティを保護してください。自撮りビデオを録音するだけです。あなたのセルフィービデオがあなたのプロフィール写真と一致する場合、あなたは確認されます！</t>
+  </si>
+  <si>
+    <t>원본 사진을 사용하고 있음을 증명하여 틴더 커뮤니티를 보호하도록 도와줍니다. 셀카 비디오를 녹음하면됩니다. 셀카 비디오가 프로필 사진과 일치하면 확인됩니다!</t>
+  </si>
+  <si>
+    <t>Bantu kami melindungi komuniti Tinder dengan membuktikan anda menggunakan foto asal. Anda hanya perlu merakam video selfie. Jika video selfie anda sepadan dengan foto profil anda, anda akan disahkan!</t>
+  </si>
+  <si>
+    <t>Hjelp oss med å beskytte Tinder -samfunnet ved å bevise at du bruker et originalt bilde. Du trenger bare å spille inn en selfie -video. Hvis selfie -videoen din samsvarer med profilbildet ditt, blir du bekreftet!</t>
+  </si>
+  <si>
+    <t>Pomóż nam chronić społeczność Tinder, udowadniając, że używasz oryginalnego zdjęcia. Musisz tylko nagrać film selfie. Jeśli Twoje wideo selfie pasuje do twojego zdjęcia profilowego, zostaniesz zweryfikowany!</t>
+  </si>
+  <si>
+    <t>Ajude -nos a proteger a comunidade Tinder, provando que você está usando uma foto original. Você só precisa gravar um vídeo de selfie. Se o seu vídeo selfie corresponder à foto do seu perfil, você será verificado!</t>
+  </si>
+  <si>
+    <t>Ajută -ne să protejăm comunitatea Tinder dovedind că utilizați o fotografie originală. Trebuie doar să înregistrați un videoclip selfie. Dacă videoclipul dvs. selfie se potrivește cu fotografia dvs. de profil, veți fi verificat!</t>
+  </si>
+  <si>
+    <t>Помогите нам защитить сообщество Tinder, доказав, что вы используете оригинальную фотографию. Вам просто нужно записать видео селфи. Если ваше видео селфи соответствует фотографии вашего профиля, вы будете проверены!</t>
+  </si>
+  <si>
+    <t>Pomôžte nám chrániť komunitu Tinder tým, že dokážete, že používate originálnu fotografiu. Stačí zaznamenať video selfie. Ak sa vaše selfie video zhoduje s vašou profilovou fotografiou, budete overení!</t>
+  </si>
+  <si>
+    <t>Ayúdanos a proteger a la comunidad Tinder demostrando que está utilizando una foto original. Solo necesitas grabar un video selfie. Si tu video selfie coincide con tu foto de perfil, ¡serás verificado!</t>
+  </si>
+  <si>
+    <t>Hjälp oss att skydda Tinder -samhället genom att bevisa att du använder ett originalfoto. Du behöver bara spela in en selfie -video. Om din selfie -video matchar ditt profilfoto, blir du verifierad!</t>
+  </si>
+  <si>
+    <t>ช่วยเราปกป้องชุมชน Tinder โดยพิสูจน์ว่าคุณใช้ภาพถ่ายต้นฉบับ คุณเพียงแค่ต้องบันทึกวิดีโอเซลฟี่ หากวิดีโอเซลฟี่ของคุณตรงกับรูปโปรไฟล์ของคุณคุณจะได้รับการยืนยัน!</t>
+  </si>
+  <si>
+    <t>Orijinal bir fotoğraf kullandığınızı kanıtlayarak Tinder topluluğunu korumamıza yardımcı olun. Sadece bir selfie videosu kaydetmeniz gerekiyor. Selfie videonuz profil fotoğrafınızla eşleşiyorsa, doğrulanacaksınız!</t>
+  </si>
+  <si>
+    <t>Допоможіть нам захистити спільноту Tinder, довівши, що ви використовуєте оригінальну фотографію. Вам просто потрібно записати відео селфі. Якщо ваше відео Selfie відповідає вашій фотографії профілю, ви будете перевірені!</t>
+  </si>
+  <si>
+    <t>maybe_later</t>
+  </si>
+  <si>
+    <t>Maybe later</t>
+  </si>
+  <si>
+    <t>Có lẽ sau này</t>
+  </si>
+  <si>
+    <t>ربما في وقت لاحق</t>
+  </si>
+  <si>
+    <t>Potser després</t>
+  </si>
+  <si>
+    <t>也许以后</t>
+  </si>
+  <si>
+    <t>也許以後</t>
+  </si>
+  <si>
+    <t>Možda kasnije</t>
+  </si>
+  <si>
+    <t>Måske senere</t>
+  </si>
+  <si>
+    <t>Misschien later</t>
+  </si>
+  <si>
+    <t>Ehkä myöhemmin</t>
+  </si>
+  <si>
+    <t>Peut-être plus tard</t>
+  </si>
+  <si>
+    <t>Vielleicht später</t>
+  </si>
+  <si>
+    <t>Ισως αργότερα</t>
+  </si>
+  <si>
+    <t>शायद बाद में</t>
+  </si>
+  <si>
+    <t>Talán később</t>
+  </si>
+  <si>
+    <t>mungkin nanti</t>
+  </si>
+  <si>
+    <t>Forse più tardi</t>
+  </si>
+  <si>
+    <t>多分後で</t>
+  </si>
+  <si>
+    <t>나중에</t>
+  </si>
+  <si>
+    <t>Mungkin kemudian</t>
+  </si>
+  <si>
+    <t>Kanskje senere</t>
+  </si>
+  <si>
+    <t>Może później</t>
+  </si>
+  <si>
+    <t>Talvez mais tarde</t>
+  </si>
+  <si>
+    <t>Poate mai târziu</t>
+  </si>
+  <si>
+    <t>Может быть позже</t>
+  </si>
+  <si>
+    <t>Možno neskôr</t>
+  </si>
+  <si>
+    <t>Quizas mas tarde</t>
+  </si>
+  <si>
+    <t>Kanske senare</t>
+  </si>
+  <si>
+    <t>ไว้ก่อน</t>
+  </si>
+  <si>
+    <t>Belki sonra</t>
+  </si>
+  <si>
+    <t>Можливо пізніше</t>
+  </si>
+  <si>
+    <t>how_it_works</t>
+  </si>
+  <si>
+    <t>How it works</t>
+  </si>
+  <si>
+    <t>Làm thế nào nó hoạt động</t>
+  </si>
+  <si>
+    <t>كيف تعمل</t>
+  </si>
+  <si>
+    <t>Com funciona</t>
+  </si>
+  <si>
+    <t>怎么运行的</t>
+  </si>
+  <si>
+    <t>怎麼運行的</t>
+  </si>
+  <si>
+    <t>Kako radi</t>
+  </si>
+  <si>
+    <t>Hvordan det virker</t>
+  </si>
+  <si>
+    <t>Hoe het werkt</t>
+  </si>
+  <si>
+    <t>Kuinka se toimii</t>
+  </si>
+  <si>
+    <t>Comment ça fonctionne</t>
+  </si>
+  <si>
+    <t>Wie es funktioniert</t>
+  </si>
+  <si>
+    <t>Πως δουλεύει</t>
+  </si>
+  <si>
+    <t>यह काम किस प्रकार करता है</t>
+  </si>
+  <si>
+    <t>Hogyan működik</t>
+  </si>
+  <si>
+    <t>Bagaimana itu bekerja</t>
+  </si>
+  <si>
+    <t>Come funziona</t>
+  </si>
+  <si>
+    <t>使い方</t>
+  </si>
+  <si>
+    <t>작동 방식</t>
+  </si>
+  <si>
+    <t>Bagaimana ia berfungsi</t>
+  </si>
+  <si>
+    <t>Hvordan det fungerer</t>
+  </si>
+  <si>
+    <t>Jak to działa</t>
+  </si>
+  <si>
+    <t>Como funciona</t>
+  </si>
+  <si>
+    <t>Cum functioneaza</t>
+  </si>
+  <si>
+    <t>Как это работает</t>
+  </si>
+  <si>
+    <t>Ako to funguje</t>
+  </si>
+  <si>
+    <t>Cómo funciona</t>
+  </si>
+  <si>
+    <t>Hur det fungerar</t>
+  </si>
+  <si>
+    <t>มันทำงานอย่างไร</t>
+  </si>
+  <si>
+    <t>Nasıl çalışır</t>
+  </si>
+  <si>
+    <t>Як це працює</t>
+  </si>
+  <si>
+    <t>our_face_recognition_technology_compares_your_face_in_selfie_videos_with_photos_in_your_profile._we'll_keep_two_screenshots_from_your_selfie_video_for_as_long_as_your_account_is_live_to_test_and_manage_your_photo_verification_feature._we_will_also_keep_the_results_of_the_process_(e.g._photo_verified_or_not).</t>
+  </si>
+  <si>
+    <t>Our face recognition technology compares your face in selfie videos with photos in your profile. We'll keep two screenshots from your selfie video for as long as your account is live to test and manage your Photo Verification feature. We will also keep the results of the process (e.g. Photo Verified or not).</t>
+  </si>
+  <si>
+    <t>Công nghệ nhận dạng khuôn mặt của chúng tôi so sánh khuôn mặt của bạn trong video selfie với ảnh trong hồ sơ của bạn. Chúng tôi sẽ giữ hai ảnh chụp màn hình từ video selfie của bạn miễn là tài khoản của bạn được trực tiếp để kiểm tra và quản lý tính năng xác minh ảnh của bạn. Chúng tôi cũng sẽ giữ kết quả của quá trình (ví dụ: ảnh được xác minh hoặc không).</t>
+  </si>
+  <si>
+    <t>تقارن تقنية التعرف على وجهنا وجهك في مقاطع الفيديو الخاصة بك مع صور في ملفك الشخصي. سنحتفظ بسباقين من مقطع الفيديو الخاص بك ، طالما أن حسابك مباشر لاختبار وإدارة ميزة التحقق من الصور الخاصة بك. سنحتفظ أيضًا بنتائج العملية (على سبيل المثال ، تم التحقق من الصورة أم لا).</t>
+  </si>
+  <si>
+    <t>La nostra tecnologia de reconeixement facial compara la vostra cara en vídeos selfie amb fotos del vostre perfil. Mantenirem dues captures de pantalla del vídeo selfie sempre que el vostre compte estigui en directe per provar i gestionar la vostra funció de verificació de fotos. També mantindrem els resultats del procés (per exemple, la foto verificada o no).</t>
+  </si>
+  <si>
+    <t>我们的面部识别技术将您在自拍视频中的脸部与个人资料中的照片进行比较。只要您的帐户现场测试和管理您的照片验证功能，我们将在自拍视频中保留两个屏幕截图。我们还将保留该过程的结果（例如照片是否验证）。</t>
+  </si>
+  <si>
+    <t>我們的面部識別技術將您在自拍視頻中的臉部與個人資料中的照片進行比較。只要您的帳戶現場測試和管理您的照片驗證功能，我們將在自拍視頻中保留兩個屏幕截圖。我們還將保留該過程的結果（例如照片是否驗證）。</t>
+  </si>
+  <si>
+    <t>Naša tehnologija prepoznavanja lica uspoređuje vaše lice u selfie videozapisima sa fotografijama na vašem profilu. Dvije ćemo snimke zaslona iz vašeg selfie videa sve dok je vaš račun uživo za testiranje i upravljanje značajkom provjere fotografija. Također ćemo zadržati rezultate postupka (npr. Photo ovjerenu ili ne).</t>
+  </si>
+  <si>
+    <t>Vores ansigtsgenkendelsesteknologi sammenligner dit ansigt i selfie -videoer med fotos i din profil. Vi holder to skærmbilleder fra din selfie -video, så længe din konto er live for at teste og administrere din fotobekræftelsesfunktion. Vi vil også holde resultaterne af processen (f.eks. Foto verificeret eller ej).</t>
+  </si>
+  <si>
+    <t>Onze gezichtsherkenningstechnologie vergelijkt je gezicht in selfie -video's met foto's in je profiel. We houden twee screenshots uit je selfie -video zolang je account live is om je fotoverificatiefunctie te testen en te beheren. We zullen ook de resultaten van het proces behouden (bijv. Foto geverifieerd of niet).</t>
+  </si>
+  <si>
+    <t>Kasvojen tunnistustekniikkamme vertaa kasvosi selfie -videoissa valokuvien kanssa profiilissasi. Pidämme kaksi kuvakaappausta selfie -videostasi niin kauan kuin tilisi on suorana testaamaan ja hallitsemaan valokuvien vahvistusominaisuutta. Pidämme myös prosessin tulokset (esim. Valokuva vahvistettu tai ei).</t>
+  </si>
+  <si>
+    <t>Notre technologie de reconnaissance faciale compare votre visage dans des vidéos de selfie avec des photos dans votre profil. Nous garderons deux captures d'écran de votre vidéo de selfie aussi longtemps que votre compte est en direct pour tester et gérer votre fonctionnalité de vérification photo. Nous conserverons également les résultats du processus (par exemple, la photo vérifiée ou non).</t>
+  </si>
+  <si>
+    <t>Unsere Gesichtserkennungstechnologie vergleicht Ihr Gesicht in Selfie -Videos mit Fotos in Ihrem Profil. Wir werden zwei Screenshots von Ihrem Selfie -Video von Ihrem Konto live von Ihrem Konto übertragen, um Ihre Fotoüberprüfungsfunktion zu testen und zu verwalten. Wir werden auch die Ergebnisse des Prozesses beibehalten (z. B. Foto verifiziert oder nicht).</t>
+  </si>
+  <si>
+    <t>Η τεχνολογία αναγνώρισης του προσώπου μας συγκρίνει το πρόσωπό σας σε βίντεο selfie με φωτογραφίες στο προφίλ σας. Θα διατηρήσουμε δύο στιγμιότυπα οθόνης από το βίντεο Selfie για όσο διάστημα ο λογαριασμός σας είναι ζωντανός για να δοκιμάσετε και να διαχειριστείτε τη δυνατότητα επαλήθευσης φωτογραφιών σας. Θα διατηρήσουμε επίσης τα αποτελέσματα της διαδικασίας (π.χ. επαληθευμένη φωτογραφία ή όχι).</t>
+  </si>
+  <si>
+    <t>हमारी चेहरा पहचान तकनीक आपके प्रोफ़ाइल में फ़ोटो के साथ सेल्फी वीडियो में आपके चेहरे की तुलना करती है। जब तक आपका खाता आपके फोटो सत्यापन सुविधा का परीक्षण करने और प्रबंधित करने के लिए लाइव है, तब तक हम आपके सेल्फी वीडियो से दो स्क्रीनशॉट रखेंगे। हम प्रक्रिया के परिणाम भी रखेंगे (जैसे कि फोटो सत्यापित या नहीं)।</t>
+  </si>
+  <si>
+    <t>Arcfelismerési technológiánk összehasonlítja az arcát a szelfi videókban a profilodban található fotókkal. Két képernyőképet tartunk a szelfi videóból, amíg a fiókja élőben tesztelheti és kezelheti a fotó -ellenőrzési funkciót. A folyamat eredményeit is megőrizzük (pl. Photo igazolva vagy sem).</t>
+  </si>
+  <si>
+    <t>Teknologi pengenalan wajah kami membandingkan wajah Anda dalam video selfie dengan foto di profil Anda. Kami akan menyimpan dua tangkapan layar dari video selfie Anda selama akun Anda langsung untuk menguji dan mengelola fitur verifikasi foto Anda. Kami juga akan menjaga hasil proses (mis. Foto diverifikasi atau tidak).</t>
+  </si>
+  <si>
+    <t>La nostra tecnologia di riconoscimento del viso confronta il tuo viso nei video selfie con le foto nel tuo profilo. Terreremo due screenshot dal tuo video selfie fino a quando il tuo account è in diretta per testare e gestire la tua funzione di verifica delle foto. Conserveremo anche i risultati del processo (ad es. Verificata foto o meno).</t>
+  </si>
+  <si>
+    <t>私たちの顔認識テクノロジーは、あなたの顔のビデオであなたの顔をあなたのプロフィールの写真と比較します。写真検証機能をテストおよび管理するためにアカウントがライブである限り、セルフィービデオから2つのスクリーンショットを保持します。また、プロセスの結果を保持します（例：写真の検証かどうか）。</t>
+  </si>
+  <si>
+    <t>우리의 얼굴 인식 기술은 셀카 비디오의 얼굴을 프로필의 사진과 비교합니다. 귀하의 계정이 사진 검증 기능을 테스트하고 관리하기 위해 생중계되는 한 셀카 비디오에서 두 개의 스크린 샷을 유지합니다. 또한 프로세스 결과를 유지합니다 (예 : 사진 검증 여부).</t>
+  </si>
+  <si>
+    <t>Teknologi Pengiktirafan Wajah kami membandingkan wajah anda dalam video selfie dengan foto dalam profil anda. Kami akan menyimpan dua tangkapan skrin dari video selfie anda selagi akaun anda hidup untuk menguji dan menguruskan ciri pengesahan foto anda. Kami juga akan mengekalkan hasil proses (mis. Foto yang disahkan atau tidak).</t>
+  </si>
+  <si>
+    <t>Vår ansiktsgjenkjenningsteknologi sammenligner ansiktet ditt i selfie -videoer med bilder i profilen din. Vi holder to skjermbilder fra selfie -videoen din så lenge kontoen din er live for å teste og administrere fotoverifiseringsfunksjonen. Vi vil også beholde resultatene av prosessen (f.eks. Foto bekreftet eller ikke).</t>
+  </si>
+  <si>
+    <t>Nasza technologia rozpoznawania twarzy porównuje twoją twarz w filmach selfie ze zdjęciami w Twoim profilu. Będziemy przechowywać dwa zrzuty ekranu z twojego filmu do selfie tak długo, jak twoje konto jest na żywo, aby przetestować i zarządzać funkcją weryfikacji zdjęć. Zachowamy również wyniki procesu (np. Zdjęcie weryfikowane lub nie).</t>
+  </si>
+  <si>
+    <t>Nossa tecnologia de reconhecimento de rosto compara seu rosto em vídeos de selfie com fotos em seu perfil. Manteremos duas capturas de tela do seu vídeo de selfie enquanto sua conta estiver ao vivo para testar e gerenciar seu recurso de verificação de fotos. Também manteremos os resultados do processo (por exemplo, foto verificada ou não).</t>
+  </si>
+  <si>
+    <t>Tehnologia noastră de recunoaștere a feței vă compară fața în videoclipuri selfie cu fotografii din profilul dvs. Vom păstra două capturi de ecran din videoclipul dvs. selfie, atât timp cât contul dvs. este live pentru a testa și gestiona funcția de verificare foto. De asemenea, vom păstra rezultatele procesului (de exemplu, fotografia verificată sau nu).</t>
+  </si>
+  <si>
+    <t>Наша технология распознавания лица сравнивает ваше лицо в видео селфи с фотографиями в вашем профиле. Мы оставляем два скриншота из вашего видео в селфи до тех пор, пока ваша учетная запись живет для тестирования и управления вашей функцией проверки фотографий. Мы также сохраним результаты процесса (например, проверка фотографии или нет).</t>
+  </si>
+  <si>
+    <t>Naša technológia rozpoznávania tváre porovnáva vašu tvár vo videách selfie s fotografiami vo vašom profile. Z vášho videa selfie budeme uchovávať dve snímky obrazovky, pokiaľ je váš účet živý na testovanie a správu vašej funkcie overovania fotografií. Výsledky procesu tiež udržiavame (napr. Overené alebo nie).</t>
+  </si>
+  <si>
+    <t>Nuestra tecnología de reconocimiento facial compara su cara en videos de selfie con fotos en su perfil. Mantendremos dos capturas de pantalla de su video selfie mientras su cuenta esté en vivo para probar y administrar su función de verificación de fotos. También mantendremos los resultados del proceso (por ejemplo, foto verificada o no).</t>
+  </si>
+  <si>
+    <t>Vår ansiktsigenkänningsteknologi jämför ditt ansikte i selfie -videor med foton i din profil. Vi kommer att hålla två skärmdumpar från din selfie -video så länge ditt konto är live för att testa och hantera din fotorverifieringsfunktion. Vi kommer också att behålla resultaten av processen (t.ex. foto verifierad eller inte).</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการจดจำใบหน้าของเราเปรียบเทียบใบหน้าของคุณในวิดีโอเซลฟี่กับภาพถ่ายในโปรไฟล์ของคุณ เราจะเก็บภาพหน้าจอสองภาพจากวิดีโอเซลฟี่ของคุณตราบเท่าที่บัญชีของคุณยังมีชีวิตอยู่เพื่อทดสอบและจัดการคุณสมบัติการยืนยันภาพถ่ายของคุณ นอกจากนี้เรายังจะรักษาผลลัพธ์ของกระบวนการ (เช่นภาพถ่ายที่ตรวจสอบหรือไม่)</t>
+  </si>
+  <si>
+    <t>Yüz tanıma teknolojimiz, selfie videolarındaki yüzünüzü profilinizdeki fotoğraflarla karşılaştırır. Fotoğraf doğrulama özelliğinizi test etmek ve yönetmek için hesabınız canlı olduğu sürece selfie videonuzdan iki ekran görüntüsü tutacağız. Ayrıca sürecin sonuçlarını da tutacağız (örneğin fotoğraf doğrulanıp doğrulanmadığı).</t>
+  </si>
+  <si>
+    <t>Наша технологія розпізнавання обличчя порівнює ваше обличчя у селфі -відео з фотографіями у вашому профілі. Ми зберігаємо два скріншоти з вашого відео з селфі, поки ваш обліковий запис буде в прямому ефірі для тестування та управління функцією перевірки фотографій. Ми також збережемо результати процесу (наприклад, фотографія перевірена чи ні).</t>
+  </si>
+  <si>
+    <t>we'll_keep_your_basic_facial_recognition_information,_or_"templates,"_upon_completion_of_photo_verification_(usually_completed_within_24_hours)._we_do_not_store_your_selfie_videos.</t>
+  </si>
+  <si>
+    <t>We'll keep your basic facial recognition information, or "templates," upon completion of Photo Verification (usually completed within 24 hours). We do not store your selfie videos.</t>
+  </si>
+  <si>
+    <t>Chúng tôi sẽ giữ thông tin nhận dạng khuôn mặt cơ bản của bạn hoặc "Mẫu", sau khi hoàn thành xác minh ảnh (thường được hoàn thành trong vòng 24 giờ). Chúng tôi không lưu trữ video selfie của bạn.</t>
+  </si>
+  <si>
+    <t>سنحتفظ بمعلومات التعرف على الوجه الأساسية ، أو "القوالب" ، عند الانتهاء من التحقق من الصور (عادةً ما يتم الانتهاء منها خلال 24 ساعة). نحن لا نقوم بتخزين مقاطع الفيديو الخاصة بك.</t>
+  </si>
+  <si>
+    <t>Mantindrem la vostra informació bàsica de reconeixement facial o "plantilles", un cop finalitzada la verificació fotogràfica (normalment finalitzada en 24 hores). No emmagatzemem els vostres vídeos selfie.</t>
+  </si>
+  <si>
+    <t>完成照片验证后（通常在24小时内完成）后，我们将保留您的基本面部识别信息或“模板”。我们不存储您的自拍视频。</t>
+  </si>
+  <si>
+    <t>完成照片驗證後（通常在24小時內完成）後，我們將保留您的基本面部識別信息或“模板”。我們不存儲您的自拍視頻。</t>
+  </si>
+  <si>
+    <t>Pomoć ćemo zadržati vaše osnovne podatke o prepoznavanju lica ili "predloške", nakon završetka provjere fotografije (obično dovršene u roku od 24 sata). Ne pohranjujemo vaše selfie videozapise.</t>
+  </si>
+  <si>
+    <t>Vi opbevarer dine grundlæggende oplysninger om ansigtsgenkendelse eller "skabeloner", efter afslutningen af ​​fotobekræftelse (normalt afsluttet inden for 24 timer). Vi gemmer ikke dine selfie -videoer.</t>
+  </si>
+  <si>
+    <t>We houden uw basisinformatie voor gezichtsherkenning of 'sjablonen' bij het voltooien van fotoverificatie (meestal binnen 24 uur voltooid). We slaan je selfie -video's niet op.</t>
+  </si>
+  <si>
+    <t>Pidämme perustiedot kasvojen tunnistustietosi tai "malleja" valokuvien tarkistuksen päätyttyä (yleensä valmistettu 24 tunnin sisällä). Emme tallenna selfie -videoitasi.</t>
+  </si>
+  <si>
+    <t>Nous conserverons vos informations de reconnaissance faciale de base, ou «modèles», à la fin de la vérification photo (généralement terminée dans les 24 heures). Nous ne stockons pas vos vidéos de selfie.</t>
+  </si>
+  <si>
+    <t>Nach Abschluss der Fotoüberprüfung (normalerweise innerhalb von 24 Stunden abgeschlossen) werden wir Ihre grundlegenden Information über Gesichtserkennung oder "Vorlagen" behalten. Wir speichern Ihre Selfie -Videos nicht.</t>
+  </si>
+  <si>
+    <t>Θα διατηρήσουμε τις βασικές πληροφορίες αναγνώρισης προσώπου ή "πρότυπα", μετά την ολοκλήρωση της επαλήθευσης φωτογραφιών (συνήθως ολοκληρώθηκαν εντός 24 ωρών). Δεν αποθηκεύουμε τα βίντεο selfie σας.</t>
+  </si>
+  <si>
+    <t>हम आपकी बुनियादी चेहरे की पहचान की जानकारी, या "टेम्प्लेट,", फोटो सत्यापन के पूरा होने पर रखेंगे (आमतौर पर 24 घंटे के भीतर पूरा होता है)। हम आपके सेल्फी वीडियो को स्टोर नहीं करते हैं।</t>
+  </si>
+  <si>
+    <t>A fotó -ellenőrzés befejezése után megőrizzük alapvető arcfelismerési adatait, vagy a "sablonokat" (általában 24 órán belül kitöltve). Nem tároljuk a szelfi videóit.</t>
+  </si>
+  <si>
+    <t>Kami akan menyimpan informasi pengenalan wajah dasar Anda, atau "templat," setelah menyelesaikan verifikasi foto (biasanya selesai dalam waktu 24 jam). Kami tidak menyimpan video selfie Anda.</t>
+  </si>
+  <si>
+    <t>Conserveremo le informazioni di base del riconoscimento facciale o "modelli", al completamento della verifica delle foto (di solito completate entro 24 ore). Non archiviamo i tuoi video selfie.</t>
+  </si>
+  <si>
+    <t>写真検証が完了すると、基本的な顔認識情報または「テンプレート」を保持します（通常は24時間以内に完了します）。私たちはあなたのセルフィービデオを保存しません。</t>
+  </si>
+  <si>
+    <t>사진 검증이 완료되면 (일반적으로 24 시간 이내에 완료) 기본 얼굴 인식 정보 또는 "템플릿"을 유지합니다. 우리는 당신의 셀카 비디오를 저장하지 않습니다.</t>
+  </si>
+  <si>
+    <t>Kami akan menyimpan maklumat pengiktirafan muka asas anda, atau "templat," setelah selesai pengesahan foto (biasanya selesai dalam masa 24 jam). Kami tidak menyimpan video selfie anda.</t>
+  </si>
+  <si>
+    <t>Vi holder din grunnleggende ansiktsgjenkjenningsinformasjon, eller "maler", etter fullføring av fotoverifisering (vanligvis fullført innen 24 timer). Vi lagrer ikke selfie -videoene dine.</t>
+  </si>
+  <si>
+    <t>Będziemy przechowywać twoje podstawowe informacje o rozpoznawaniu twarzy lub „szablony” po zakończeniu weryfikacji zdjęcia (zwykle ukończonej w ciągu 24 godzin). Nie przechowujemy twoich filmów selfie.</t>
+  </si>
+  <si>
+    <t>Manteremos suas informações básicas de reconhecimento facial, ou "modelos", após a conclusão da verificação de fotos (geralmente concluída em 24 horas). Não armazenamos seus vídeos de selfie.</t>
+  </si>
+  <si>
+    <t>Vă vom păstra informațiile de bază de recunoaștere facială sau „șabloane”, după finalizarea verificării foto (de obicei finalizate în 24 de ore). Nu vă stocăm videoclipurile selfie.</t>
+  </si>
+  <si>
+    <t>Мы сохраним вашу основную информацию о распознавании лиц или «шаблоны» после завершения проверки фотографий (обычно завершаются в течение 24 часов). Мы не храним ваши видео селфи.</t>
+  </si>
+  <si>
+    <t>Po dokončení overovania fotografií (zvyčajne sa dokončené do 24 hodín) uchováme vaše základné informácie o rozpoznávaní tváre alebo „šablóny“. Neskladáme vaše selfie videá.</t>
+  </si>
+  <si>
+    <t>Mantendremos su información básica de reconocimiento facial, o "plantillas", al finalizar la verificación de fotos (generalmente completada dentro de las 24 horas). No almacenamos tus videos de selfies.</t>
+  </si>
+  <si>
+    <t>Vi kommer att behålla din grundläggande information om ansiktsigenkänning, eller "mallar", efter avslutad fotoperifiering (vanligtvis slutförd inom 24 timmar). Vi lagrar inte dina selfie -videor.</t>
+  </si>
+  <si>
+    <t>เราจะเก็บข้อมูลการจดจำใบหน้าขั้นพื้นฐานของคุณหรือ "แม่แบบ" เมื่อเสร็จสิ้นการตรวจสอบภาพถ่าย (โดยปกติจะเสร็จสิ้นภายใน 24 ชั่วโมง) เราไม่เก็บวิดีโอเซลฟี่ของคุณ</t>
+  </si>
+  <si>
+    <t>Fotoğraf doğrulamasını tamamladıktan sonra (genellikle 24 saat içinde tamamlanmıştır) temel yüz tanıma bilgilerinizi veya "şablonları" tutacağız. Selfie videolarınızı saklamıyoruz.</t>
+  </si>
+  <si>
+    <t>Після завершення перевірки фотографій ми збережемо вашу основну інформацію про розпізнавання обличчя або "шаблони" (зазвичай завершені протягом 24 годин). Ми не зберігаємо ваші селфі відео.</t>
+  </si>
+  <si>
+    <t>invalid_image</t>
+  </si>
+  <si>
+    <t>Invalid image</t>
+  </si>
+  <si>
+    <t>Hình ảnh không hợp lệ</t>
+  </si>
+  <si>
+    <t>صورة غير صالحة</t>
+  </si>
+  <si>
+    <t>Imatge no vàlida</t>
+  </si>
+  <si>
+    <t>无效的图像</t>
+  </si>
+  <si>
+    <t>無效的圖像</t>
+  </si>
+  <si>
+    <t>Nevaljana slika</t>
+  </si>
+  <si>
+    <t>Ugyldigt billede</t>
+  </si>
+  <si>
+    <t>Ongeldige afbeelding</t>
+  </si>
+  <si>
+    <t>Virheellinen kuva</t>
+  </si>
+  <si>
+    <t>Image non valide</t>
+  </si>
+  <si>
+    <t>Ungültiges Bild</t>
+  </si>
+  <si>
+    <t>Μη έγκυρη εικόνα</t>
+  </si>
+  <si>
+    <t>अमान्य छवि</t>
+  </si>
+  <si>
+    <t>Érvénytelen kép</t>
+  </si>
+  <si>
+    <t>Gambar tidak valid</t>
+  </si>
+  <si>
+    <t>Immagine non valida</t>
+  </si>
+  <si>
+    <t>無効な画像</t>
+  </si>
+  <si>
+    <t>잘못된 이미지</t>
+  </si>
+  <si>
+    <t>Imej tidak sah</t>
+  </si>
+  <si>
+    <t>Ugyldig bilde</t>
+  </si>
+  <si>
+    <t>Nieprawidłowy obraz</t>
+  </si>
+  <si>
+    <t>Imagem inválida</t>
+  </si>
+  <si>
+    <t>Imagine nevalide</t>
+  </si>
+  <si>
+    <t>Неверное изображение</t>
+  </si>
+  <si>
+    <t>Neplatný obraz</t>
+  </si>
+  <si>
+    <t>Imagen inválida</t>
+  </si>
+  <si>
+    <t>Ogiltig bild</t>
+  </si>
+  <si>
+    <t>ภาพที่ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>Geçersiz resim</t>
+  </si>
+  <si>
+    <t>Недійсне зображення</t>
+  </si>
+  <si>
+    <t>your_photo_does_not_match.please_select_a_photo_again</t>
+  </si>
+  <si>
+    <t>Your photo does not match.Please select a photo again</t>
+  </si>
+  <si>
+    <t>Ảnh của bạn không khớp. Xin vui lòng chọn ảnh một lần nữa</t>
+  </si>
+  <si>
+    <t>صورتك لا تتطابق. please حدد صورة مرة أخرى</t>
+  </si>
+  <si>
+    <t>La vostra foto no coincideix. Si us plau, seleccioneu una foto de nou</t>
+  </si>
+  <si>
+    <t>您的照片不匹配。请再次选择照片</t>
+  </si>
+  <si>
+    <t>您的照片不匹配。請再次選擇照片</t>
+  </si>
+  <si>
+    <t>Vaša se fotografija ne podudara.pojavite ponovo fotografiju</t>
+  </si>
+  <si>
+    <t>Dit foto stemmer ikke overens. Vælg et foto igen</t>
+  </si>
+  <si>
+    <t>Uw foto komt niet overeen. Selecteer opnieuw een foto opnieuw</t>
+  </si>
+  <si>
+    <t>Valokuvasi ei vastaa. Valitse valokuva uudelleen</t>
+  </si>
+  <si>
+    <t>Votre photo ne correspond pas. Veuillez sélectionner une photo à nouveau</t>
+  </si>
+  <si>
+    <t>Ihr Foto stimmt nicht überein. Bitte wählen Sie ein Foto erneut aus</t>
+  </si>
+  <si>
+    <t>Η φωτογραφία σας δεν ταιριάζει. Επιλέξτε ξανά μια φωτογραφία</t>
+  </si>
+  <si>
+    <t>आपका फोटो मेल नहीं खाता है। कृपया फिर से एक फोटो चुनें</t>
+  </si>
+  <si>
+    <t>A fényképe nem egyezik. Kérjük, válasszon egy fényképet újra</t>
+  </si>
+  <si>
+    <t>Foto Anda tidak cocok. Silakan pilih foto lagi</t>
+  </si>
+  <si>
+    <t>La tua foto non corrisponde. Seleziona di nuovo una foto</t>
+  </si>
+  <si>
+    <t>あなたの写真は一致しません。もう一度写真を選択してください</t>
+  </si>
+  <si>
+    <t>사진이 일치하지 않습니다. 사진을 다시 선택하십시오</t>
+  </si>
+  <si>
+    <t>Foto anda tidak sepadan. Sila pilih foto lagi</t>
+  </si>
+  <si>
+    <t>Bildet ditt stemmer ikke overens. Velg et bilde igjen</t>
+  </si>
+  <si>
+    <t>Twoje zdjęcie nie pasuje. Wybierz ponownie zdjęcie</t>
+  </si>
+  <si>
+    <t>Sua foto não corresponde. Por favor, selecione uma foto novamente</t>
+  </si>
+  <si>
+    <t>Fotografia dvs. nu se potrivește. Vă rugăm să selectați din nou o fotografie</t>
+  </si>
+  <si>
+    <t>Ваша фотография не совпадает. Пожалуйста, снова выберите фото</t>
+  </si>
+  <si>
+    <t>Vaša fotografia sa nezhoduje. Vyberte fotografiu znova</t>
+  </si>
+  <si>
+    <t>Su foto no coincide. Por favor, seleccione una foto nuevamente</t>
+  </si>
+  <si>
+    <t>Ditt foto matchar inte. Välj ett foto igen</t>
+  </si>
+  <si>
+    <t>รูปภาพของคุณไม่ตรงกันโปรดเลือกรูปภาพอีกครั้ง</t>
+  </si>
+  <si>
+    <t>Fotoğrafınız eşleşmiyor. Lütfen tekrar bir fotoğraf seçin</t>
+  </si>
+  <si>
+    <t>Ваша фотографія не відповідає. Будь ласка, знову виберіть фотографію</t>
+  </si>
+  <si>
+    <t>learn_more_about_how_it_works</t>
+  </si>
+  <si>
+    <t>Learn more about how it works</t>
+  </si>
+  <si>
+    <t>Tìm hiểu thêm về cách nó hoạt động</t>
+  </si>
+  <si>
+    <t>تعرف على المزيد حول كيفية عملها</t>
+  </si>
+  <si>
+    <t>Obteniu més informació sobre com funciona</t>
+  </si>
+  <si>
+    <t>了解有关其工作原理的更多信息</t>
+  </si>
+  <si>
+    <t>了解有關其工作原理的更多信息</t>
+  </si>
+  <si>
+    <t>Saznajte više o tome kako to funkcionira</t>
+  </si>
+  <si>
+    <t>Lær mere om, hvordan det fungerer</t>
+  </si>
+  <si>
+    <t>Lees meer over hoe het werkt</t>
+  </si>
+  <si>
+    <t>Lisätietoja siitä, miten se toimii</t>
+  </si>
+  <si>
+    <t>En savoir plus sur comment cela fonctionne</t>
+  </si>
+  <si>
+    <t>Erfahren Sie mehr darüber, wie es funktioniert</t>
+  </si>
+  <si>
+    <t>Μάθετε περισσότερα για το πώς λειτουργεί</t>
+  </si>
+  <si>
+    <t>यह कैसे काम करता है, इसके बारे में और जानें</t>
+  </si>
+  <si>
+    <t>Tudjon meg többet arról, hogyan működik</t>
+  </si>
+  <si>
+    <t>Pelajari lebih lanjut tentang cara kerjanya</t>
+  </si>
+  <si>
+    <t>Scopri di più su come funziona</t>
+  </si>
+  <si>
+    <t>それがどのように機能するかについて詳しく知ります</t>
+  </si>
+  <si>
+    <t>작동 방식에 대해 자세히 알아보십시오</t>
+  </si>
+  <si>
+    <t>Ketahui lebih lanjut mengenai bagaimana ia berfungsi</t>
+  </si>
+  <si>
+    <t>Lær mer om hvordan det fungerer</t>
+  </si>
+  <si>
+    <t>Dowiedz się więcej o tym, jak to działa</t>
+  </si>
+  <si>
+    <t>Saiba mais sobre como funciona</t>
+  </si>
+  <si>
+    <t>Aflați mai multe despre cum funcționează</t>
+  </si>
+  <si>
+    <t>Узнайте больше о том, как это работает</t>
+  </si>
+  <si>
+    <t>Dozviete sa viac o tom, ako to funguje</t>
+  </si>
+  <si>
+    <t>Aprenda más sobre cómo funciona</t>
+  </si>
+  <si>
+    <t>Lär dig mer om hur det fungerar</t>
+  </si>
+  <si>
+    <t>เรียนรู้เพิ่มเติมเกี่ยวกับวิธีการทำงาน</t>
+  </si>
+  <si>
+    <t>Nasıl çalıştığı hakkında daha fazla bilgi edinin</t>
+  </si>
+  <si>
+    <t>Дізнайтеся більше про те, як це працює</t>
+  </si>
+  <si>
+    <t>bạn có chắc chắn muốn đăng xuất không?</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد أنك تريد الخروج؟</t>
+  </si>
+  <si>
+    <t>Esteu segur que voleu iniciar la sessió?</t>
+  </si>
+  <si>
+    <t>您确定要退出吗？</t>
+  </si>
+  <si>
+    <t>您確定要退出嗎？</t>
+  </si>
+  <si>
+    <t>Jeste li sigurni da se želite odjaviti?</t>
+  </si>
+  <si>
+    <t>Er du sikker på, at du vil logge ud?</t>
+  </si>
+  <si>
+    <t>Weet je zeker dat je je wilt afmelden?</t>
+  </si>
+  <si>
+    <t>Oletko varma, että haluat kirjautua ulos?</t>
+  </si>
+  <si>
+    <t>Êtes-vous certain de vouloir vous déconnecter?</t>
+  </si>
+  <si>
+    <t>Sind Sie sicher, dass Sie sich anmelden möchten?</t>
+  </si>
+  <si>
+    <t>Είστε βέβαιοι ότι θέλετε να αποσυνδεθείτε;</t>
+  </si>
+  <si>
+    <t>क्या आप द्वारा साइन आउट किया जाना सुनिश्चित है?</t>
+  </si>
+  <si>
+    <t>Biztos benne, hogy ki kell jelentkezni?</t>
+  </si>
+  <si>
+    <t>Apakah Anda yakin ingin keluar?</t>
+  </si>
+  <si>
+    <t>Sei sicuro di voler uscire?</t>
+  </si>
+  <si>
+    <t>サインアウトしたいですか？</t>
+  </si>
+  <si>
+    <t>서명 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Adakah anda pasti mahu mendaftar keluar?</t>
+  </si>
+  <si>
+    <t>Er du sikker på at du vil logge deg ut?</t>
+  </si>
+  <si>
+    <t>Czy na pewno chcesz się wylogować?</t>
+  </si>
+  <si>
+    <t>Você tem certeza que deseja sair?</t>
+  </si>
+  <si>
+    <t>Ești sigur că vrei să te conectezi?</t>
+  </si>
+  <si>
+    <t>Вы уверены, что хотите выйти?</t>
+  </si>
+  <si>
+    <t>Ste si istý, že sa chcete prihlásiť?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres cerrar sesión?</t>
+  </si>
+  <si>
+    <t>Är du säker på att du vill logga ut?</t>
+  </si>
+  <si>
+    <t>คุณแน่ใจว่าคุณต้องการที่จะออกจากระบบ?</t>
+  </si>
+  <si>
+    <t>Oturum açmak istediğinden emin misin?</t>
+  </si>
+  <si>
+    <t>Ви впевнені, що хочете підписатись?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29455,6 +30703,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -29504,7 +30758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -29517,6 +30771,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29833,13 +31090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D9AF0E-90F6-4E7D-B072-5BA25E7BB3D6}">
-  <dimension ref="A1:AI346"/>
+  <dimension ref="A1:AI359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="P344" sqref="P344"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J347" sqref="J347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.90625" style="3" customWidth="1"/>
     <col min="2" max="10" width="8.7265625" style="3"/>
@@ -29849,7 +31106,7 @@
     <col min="35" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="39" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>216</v>
       </c>
@@ -29956,7 +31213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="51.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>219</v>
       </c>
@@ -30063,7 +31320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="102" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
@@ -30170,7 +31427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="64" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>93</v>
       </c>
@@ -30277,7 +31534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="58.5" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>220</v>
       </c>
@@ -30384,7 +31641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="76.5" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>221</v>
       </c>
@@ -30491,7 +31748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" ht="64" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>222</v>
       </c>
@@ -30598,7 +31855,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="251.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" ht="251.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
@@ -30705,7 +31962,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" ht="64" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>282</v>
       </c>
@@ -30812,7 +32069,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>314</v>
       </c>
@@ -30919,7 +32176,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" ht="39" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>342</v>
       </c>
@@ -31026,7 +32283,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" ht="44" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>370</v>
       </c>
@@ -31133,7 +32390,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="39" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>402</v>
       </c>
@@ -31240,7 +32497,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" ht="114" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>431</v>
       </c>
@@ -31347,7 +32604,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" ht="290.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>8926</v>
       </c>
@@ -31454,7 +32711,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" ht="139" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>486</v>
       </c>
@@ -31561,7 +32818,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" ht="116.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>517</v>
       </c>
@@ -31668,7 +32925,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" ht="29.5" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>549</v>
       </c>
@@ -31775,7 +33032,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" ht="39" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>578</v>
       </c>
@@ -31882,7 +33139,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" ht="89" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>610</v>
       </c>
@@ -31989,7 +33246,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:35" ht="51.5" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>641</v>
       </c>
@@ -32096,7 +33353,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:35" ht="89" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>673</v>
       </c>
@@ -32203,7 +33460,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" ht="76.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>704</v>
       </c>
@@ -32310,7 +33567,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" ht="145.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>736</v>
       </c>
@@ -32417,7 +33674,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" ht="139" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>765</v>
       </c>
@@ -32524,7 +33781,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" ht="145.5" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>8927</v>
       </c>
@@ -32631,7 +33888,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" ht="64" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>826</v>
       </c>
@@ -32738,7 +33995,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:35" ht="64" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>8928</v>
       </c>
@@ -32845,7 +34102,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" ht="232.5" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>886</v>
       </c>
@@ -32952,7 +34209,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:35" ht="44" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>915</v>
       </c>
@@ -33059,7 +34316,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="164" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:35" ht="164" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>946</v>
       </c>
@@ -33166,7 +34423,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:35" ht="51.5" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>976</v>
       </c>
@@ -33273,7 +34530,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" ht="145.5" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>1007</v>
       </c>
@@ -33380,7 +34637,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" ht="89" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>1039</v>
       </c>
@@ -33487,7 +34744,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" ht="51.5" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>1069</v>
       </c>
@@ -33594,7 +34851,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="164" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:35" ht="164" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>1098</v>
       </c>
@@ -33701,7 +34958,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:35" ht="44" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1126</v>
       </c>
@@ -33808,7 +35065,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:35" ht="76.5" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>1157</v>
       </c>
@@ -33915,7 +35172,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" ht="39" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>1188</v>
       </c>
@@ -34022,7 +35279,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:35" ht="44" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>1217</v>
       </c>
@@ -34129,7 +35386,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:35" ht="232.5" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>1248</v>
       </c>
@@ -34236,7 +35493,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:35" ht="26.5" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>1279</v>
       </c>
@@ -34343,7 +35600,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:35" ht="39" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>1309</v>
       </c>
@@ -34450,7 +35707,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:35" ht="39" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>1340</v>
       </c>
@@ -34557,7 +35814,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:35" ht="39" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>1371</v>
       </c>
@@ -34664,7 +35921,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:35" ht="232.5" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>8929</v>
       </c>
@@ -34771,7 +36028,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:35" ht="51.5" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>1430</v>
       </c>
@@ -34878,7 +36135,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:35" ht="73" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>1461</v>
       </c>
@@ -34985,7 +36242,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:35" ht="39" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>1492</v>
       </c>
@@ -35092,7 +36349,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" ht="89" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>8930</v>
       </c>
@@ -35199,7 +36456,7 @@
         <v>7091</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" ht="76.5" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>1523</v>
       </c>
@@ -35306,7 +36563,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:35" ht="51.5" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>1553</v>
       </c>
@@ -35413,7 +36670,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" ht="26.5" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>1585</v>
       </c>
@@ -35520,7 +36777,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:35" ht="51.5" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>1617</v>
       </c>
@@ -35627,7 +36884,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:35" ht="189" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>1648</v>
       </c>
@@ -35734,7 +36991,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:35" ht="51.5" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>1679</v>
       </c>
@@ -35841,7 +37098,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" ht="51.5" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>1711</v>
       </c>
@@ -35948,7 +37205,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" ht="126.5" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>1741</v>
       </c>
@@ -36055,7 +37312,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" ht="51.5" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>1770</v>
       </c>
@@ -36162,7 +37419,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" ht="189" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>8931</v>
       </c>
@@ -36269,7 +37526,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:35" ht="51.5" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>1827</v>
       </c>
@@ -36376,7 +37633,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:35" ht="51.5" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>1856</v>
       </c>
@@ -36483,7 +37740,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:35" ht="76.5" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>1888</v>
       </c>
@@ -36590,7 +37847,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:35" ht="174.5" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>1917</v>
       </c>
@@ -36697,7 +37954,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:35" ht="131" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>8932</v>
       </c>
@@ -36804,7 +38061,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="305" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:35" ht="305" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>8933</v>
       </c>
@@ -36911,7 +38168,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:35" ht="409.6" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>2002</v>
       </c>
@@ -37018,7 +38275,7 @@
         <v>7445</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:35" ht="201.5" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>8934</v>
       </c>
@@ -37125,7 +38382,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:35" ht="76.5" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>8935</v>
       </c>
@@ -37232,7 +38489,7 @@
         <v>7118</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:35" ht="64" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>2054</v>
       </c>
@@ -37339,7 +38596,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:35" ht="51.5" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>8936</v>
       </c>
@@ -37446,7 +38703,7 @@
         <v>7145</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:35" ht="26.5" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>2084</v>
       </c>
@@ -37553,7 +38810,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:35" ht="39" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>2114</v>
       </c>
@@ -37660,7 +38917,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:35" ht="87.5" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>2144</v>
       </c>
@@ -37767,7 +39024,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:35" ht="64" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>2176</v>
       </c>
@@ -37874,7 +39131,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:35" ht="139" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>2208</v>
       </c>
@@ -37981,7 +39238,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:35" ht="102" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>2238</v>
       </c>
@@ -38088,7 +39345,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="78" spans="1:35" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:35" ht="139" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>2270</v>
       </c>
@@ -38195,7 +39452,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:35" ht="64" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>2302</v>
       </c>
@@ -38302,7 +39559,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="80" spans="1:35" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:35" ht="131" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>2334</v>
       </c>
@@ -38409,7 +39666,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:35" ht="44" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>1217</v>
       </c>
@@ -38516,7 +39773,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:35" ht="26.5" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>1279</v>
       </c>
@@ -38623,7 +39880,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:35" ht="39" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>1309</v>
       </c>
@@ -38730,7 +39987,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:35" ht="114" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>2366</v>
       </c>
@@ -38837,7 +40094,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:35" ht="39" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>2398</v>
       </c>
@@ -38944,7 +40201,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:35" ht="39" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>2429</v>
       </c>
@@ -39051,7 +40308,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:35" ht="145.5" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>2460</v>
       </c>
@@ -39158,7 +40415,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="251.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:35" ht="251.5" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>2490</v>
       </c>
@@ -39265,7 +40522,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:35" ht="64" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>2522</v>
       </c>
@@ -39372,7 +40629,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:35" ht="44" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>2553</v>
       </c>
@@ -39479,7 +40736,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="91" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:35" ht="51.5" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>2584</v>
       </c>
@@ -39586,7 +40843,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:35" ht="29.5" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>2616</v>
       </c>
@@ -39693,7 +40950,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:35" ht="64" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>2646</v>
       </c>
@@ -39800,7 +41057,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:35" ht="51.5" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>2704</v>
       </c>
@@ -39907,7 +41164,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="95" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:35" ht="64" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>2733</v>
       </c>
@@ -40014,7 +41271,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="96" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:35" ht="39" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>2762</v>
       </c>
@@ -40121,7 +41378,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="97" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:35" ht="39" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>2792</v>
       </c>
@@ -40228,7 +41485,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:35" ht="145.5" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>8937</v>
       </c>
@@ -40335,7 +41592,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="99" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:35" ht="89" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>2824</v>
       </c>
@@ -40442,7 +41699,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="100" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:35" ht="51.5" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>2853</v>
       </c>
@@ -40549,7 +41806,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="101" spans="1:35" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:35" ht="151.5" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>2883</v>
       </c>
@@ -40656,7 +41913,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="102" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:35" ht="51.5" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>2911</v>
       </c>
@@ -40763,7 +42020,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:35" ht="51.5" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>2943</v>
       </c>
@@ -40870,7 +42127,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:35" ht="114" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>2973</v>
       </c>
@@ -40977,7 +42234,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:35" ht="64" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>3004</v>
       </c>
@@ -41084,7 +42341,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:35" ht="64" thickBot="1">
       <c r="A106" s="5" t="s">
         <v>3033</v>
       </c>
@@ -41191,7 +42448,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="107" spans="1:35" ht="176.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:35" ht="176.5" thickBot="1">
       <c r="A107" s="5" t="s">
         <v>3065</v>
       </c>
@@ -41298,7 +42555,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="108" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:35" ht="51.5" thickBot="1">
       <c r="A108" s="5" t="s">
         <v>3093</v>
       </c>
@@ -41405,7 +42662,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:35" ht="64" thickBot="1">
       <c r="A109" s="5" t="s">
         <v>3123</v>
       </c>
@@ -41512,7 +42769,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="110" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:35" ht="89" thickBot="1">
       <c r="A110" s="5" t="s">
         <v>3154</v>
       </c>
@@ -41619,7 +42876,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:35" ht="76.5" thickBot="1">
       <c r="A111" s="5" t="s">
         <v>3186</v>
       </c>
@@ -41726,7 +42983,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:35" ht="73" thickBot="1">
       <c r="A112" s="5" t="s">
         <v>3216</v>
       </c>
@@ -41833,7 +43090,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:35" ht="89" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>3248</v>
       </c>
@@ -41940,7 +43197,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:35" ht="51.5" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>3279</v>
       </c>
@@ -42047,7 +43304,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:35" ht="64" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>3123</v>
       </c>
@@ -42154,7 +43411,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:35" ht="89" thickBot="1">
       <c r="A116" s="5" t="s">
         <v>3154</v>
       </c>
@@ -42261,7 +43518,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:35" ht="64" thickBot="1">
       <c r="A117" s="5" t="s">
         <v>3308</v>
       </c>
@@ -42368,7 +43625,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:35" ht="44" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>3337</v>
       </c>
@@ -42475,7 +43732,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:35" ht="89" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>3369</v>
       </c>
@@ -42582,7 +43839,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:35" ht="64" thickBot="1">
       <c r="A120" s="5" t="s">
         <v>3401</v>
       </c>
@@ -42689,7 +43946,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:35" ht="114" thickBot="1">
       <c r="A121" s="5" t="s">
         <v>3433</v>
       </c>
@@ -42796,7 +44053,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="122" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:35" ht="64" thickBot="1">
       <c r="A122" s="5" t="s">
         <v>3465</v>
       </c>
@@ -42903,7 +44160,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:35" ht="114" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>3497</v>
       </c>
@@ -43010,7 +44267,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="124" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:35" ht="87.5" thickBot="1">
       <c r="A124" s="5" t="s">
         <v>3527</v>
       </c>
@@ -43117,7 +44374,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="125" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:35" ht="58.5" thickBot="1">
       <c r="A125" s="5" t="s">
         <v>3559</v>
       </c>
@@ -43224,7 +44481,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="126" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:35" ht="51.5" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>3589</v>
       </c>
@@ -43331,7 +44588,7 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:35" ht="73" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>3618</v>
       </c>
@@ -43438,7 +44695,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="128" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:35" ht="64" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>3649</v>
       </c>
@@ -43545,7 +44802,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:35" ht="87.5" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>3679</v>
       </c>
@@ -43652,7 +44909,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:35" ht="39" thickBot="1">
       <c r="A130" s="5" t="s">
         <v>3710</v>
       </c>
@@ -43759,7 +45016,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:35" ht="64" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>3742</v>
       </c>
@@ -43866,7 +45123,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:35" ht="39" thickBot="1">
       <c r="A132" s="5" t="s">
         <v>3771</v>
       </c>
@@ -43973,7 +45230,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:35" ht="29.5" thickBot="1">
       <c r="A133" s="5" t="s">
         <v>3802</v>
       </c>
@@ -44080,7 +45337,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:35" ht="26.5" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>3831</v>
       </c>
@@ -44187,7 +45444,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:35" ht="145.5" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>3852</v>
       </c>
@@ -44294,7 +45551,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="136" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:35" ht="58.5" thickBot="1">
       <c r="A136" s="5" t="s">
         <v>3884</v>
       </c>
@@ -44401,7 +45658,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="137" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:35" ht="26.5" thickBot="1">
       <c r="A137" s="5" t="s">
         <v>3915</v>
       </c>
@@ -44508,7 +45765,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:35" ht="51.5" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>3946</v>
       </c>
@@ -44615,7 +45872,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:35" ht="58.5" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>3978</v>
       </c>
@@ -44722,7 +45979,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:35" ht="101.5" thickBot="1">
       <c r="A140" s="5" t="s">
         <v>4008</v>
       </c>
@@ -44829,7 +46086,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="141" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:35" ht="39" thickBot="1">
       <c r="A141" s="5" t="s">
         <v>4036</v>
       </c>
@@ -44936,7 +46193,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="142" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:35" ht="39" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>4068</v>
       </c>
@@ -45043,7 +46300,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="143" spans="1:35" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:35" ht="290.5" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>4100</v>
       </c>
@@ -45150,7 +46407,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="144" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:35" ht="64" thickBot="1">
       <c r="A144" s="5" t="s">
         <v>4132</v>
       </c>
@@ -45257,7 +46514,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="145" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:35" ht="51.5" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>4161</v>
       </c>
@@ -45364,7 +46621,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="146" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:35" ht="73" thickBot="1">
       <c r="A146" s="5" t="s">
         <v>4191</v>
       </c>
@@ -45471,7 +46728,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="147" spans="1:35" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:35" ht="160" thickBot="1">
       <c r="A147" s="5" t="s">
         <v>4222</v>
       </c>
@@ -45578,7 +46835,7 @@
         <v>7218</v>
       </c>
     </row>
-    <row r="148" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:35" ht="44" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>4247</v>
       </c>
@@ -45685,7 +46942,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="149" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:35" ht="126.5" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>4277</v>
       </c>
@@ -45792,7 +47049,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="150" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:35" ht="64" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>4132</v>
       </c>
@@ -45899,7 +47156,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:35" ht="29.5" thickBot="1">
       <c r="A151" s="5" t="s">
         <v>4305</v>
       </c>
@@ -46006,7 +47263,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="152" spans="1:35" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:35" ht="203.5" thickBot="1">
       <c r="A152" s="5" t="s">
         <v>4326</v>
       </c>
@@ -46113,7 +47370,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="153" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:35" ht="76.5" thickBot="1">
       <c r="A153" s="5" t="s">
         <v>4357</v>
       </c>
@@ -46220,7 +47477,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="154" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:35" ht="114" thickBot="1">
       <c r="A154" s="5" t="s">
         <v>4388</v>
       </c>
@@ -46327,7 +47584,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:35" ht="51.5" thickBot="1">
       <c r="A155" s="5" t="s">
         <v>4417</v>
       </c>
@@ -46434,7 +47691,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="156" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:35" ht="89" thickBot="1">
       <c r="A156" s="5" t="s">
         <v>4447</v>
       </c>
@@ -46541,7 +47798,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="157" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:35" ht="89" thickBot="1">
       <c r="A157" s="5" t="s">
         <v>4478</v>
       </c>
@@ -46648,7 +47905,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="158" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:35" ht="76.5" thickBot="1">
       <c r="A158" s="5" t="s">
         <v>4508</v>
       </c>
@@ -46755,7 +48012,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="159" spans="1:35" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:35" ht="247" thickBot="1">
       <c r="A159" s="5" t="s">
         <v>4540</v>
       </c>
@@ -46862,7 +48119,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="160" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:35" ht="51.5" thickBot="1">
       <c r="A160" s="5" t="s">
         <v>4565</v>
       </c>
@@ -46969,7 +48226,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="161" spans="1:35" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:35" ht="409.6" thickBot="1">
       <c r="A161" s="5" t="s">
         <v>8938</v>
       </c>
@@ -47076,7 +48333,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="162" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:35" ht="51.5" thickBot="1">
       <c r="A162" s="5" t="s">
         <v>4626</v>
       </c>
@@ -47183,7 +48440,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="163" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:35" ht="51.5" thickBot="1">
       <c r="A163" s="5" t="s">
         <v>4656</v>
       </c>
@@ -47290,7 +48547,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="164" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:35" ht="29.5" thickBot="1">
       <c r="A164" s="5" t="s">
         <v>4687</v>
       </c>
@@ -47397,7 +48654,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="165" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:35" ht="102" thickBot="1">
       <c r="A165" s="5" t="s">
         <v>4717</v>
       </c>
@@ -47504,7 +48761,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="166" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:35" ht="39" thickBot="1">
       <c r="A166" s="5" t="s">
         <v>4747</v>
       </c>
@@ -47611,7 +48868,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="167" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:35" ht="89" thickBot="1">
       <c r="A167" s="5" t="s">
         <v>4777</v>
       </c>
@@ -47718,7 +48975,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="168" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:35" ht="39" thickBot="1">
       <c r="A168" s="5" t="s">
         <v>4809</v>
       </c>
@@ -47825,7 +49082,7 @@
         <v>4839</v>
       </c>
     </row>
-    <row r="169" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:35" ht="51.5" thickBot="1">
       <c r="A169" s="5" t="s">
         <v>4840</v>
       </c>
@@ -47932,7 +49189,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="170" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:35" ht="39" thickBot="1">
       <c r="A170" s="5" t="s">
         <v>3742</v>
       </c>
@@ -48039,7 +49296,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="171" spans="1:35" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:35" ht="276" thickBot="1">
       <c r="A171" s="5" t="s">
         <v>4893</v>
       </c>
@@ -48146,7 +49403,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="172" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:35" ht="64" thickBot="1">
       <c r="A172" s="5" t="s">
         <v>4920</v>
       </c>
@@ -48253,7 +49510,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="173" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:35" ht="51.5" thickBot="1">
       <c r="A173" s="5" t="s">
         <v>4952</v>
       </c>
@@ -48360,7 +49617,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="174" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:35" ht="51.5" thickBot="1">
       <c r="A174" s="5" t="s">
         <v>4984</v>
       </c>
@@ -48467,7 +49724,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="175" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:35" ht="51.5" thickBot="1">
       <c r="A175" s="5" t="s">
         <v>5016</v>
       </c>
@@ -48574,7 +49831,7 @@
         <v>5046</v>
       </c>
     </row>
-    <row r="176" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:35" ht="26.5" thickBot="1">
       <c r="A176" s="5" t="s">
         <v>5047</v>
       </c>
@@ -48681,7 +49938,7 @@
         <v>5063</v>
       </c>
     </row>
-    <row r="177" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:35" ht="26.5" thickBot="1">
       <c r="A177" s="5" t="s">
         <v>5067</v>
       </c>
@@ -48788,7 +50045,7 @@
         <v>7526</v>
       </c>
     </row>
-    <row r="178" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:35" ht="39" thickBot="1">
       <c r="A178" s="5" t="s">
         <v>5096</v>
       </c>
@@ -48895,7 +50152,7 @@
         <v>5125</v>
       </c>
     </row>
-    <row r="179" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:35" ht="89" thickBot="1">
       <c r="A179" s="5" t="s">
         <v>5126</v>
       </c>
@@ -49002,7 +50259,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="180" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:35" ht="39" thickBot="1">
       <c r="A180" s="5" t="s">
         <v>5158</v>
       </c>
@@ -49109,7 +50366,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="181" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:35" ht="29.5" thickBot="1">
       <c r="A181" s="5" t="s">
         <v>5185</v>
       </c>
@@ -49216,7 +50473,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="182" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:35" ht="51.5" thickBot="1">
       <c r="A182" s="5" t="s">
         <v>5212</v>
       </c>
@@ -49323,7 +50580,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="183" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:35" ht="44" thickBot="1">
       <c r="A183" s="5" t="s">
         <v>5242</v>
       </c>
@@ -49430,7 +50687,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="184" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:35" ht="44" thickBot="1">
       <c r="A184" s="5" t="s">
         <v>5272</v>
       </c>
@@ -49537,7 +50794,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="185" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:35" ht="26.5" thickBot="1">
       <c r="A185" s="5" t="s">
         <v>5303</v>
       </c>
@@ -49644,7 +50901,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="186" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:35" ht="64" thickBot="1">
       <c r="A186" s="5" t="s">
         <v>5332</v>
       </c>
@@ -49751,7 +51008,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:35" ht="102" thickBot="1">
       <c r="A187" s="5" t="s">
         <v>7063</v>
       </c>
@@ -49858,7 +51115,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:35" ht="51.5" thickBot="1">
       <c r="A188" s="5" t="s">
         <v>5371</v>
       </c>
@@ -49965,7 +51222,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="189" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:35" ht="51.5" thickBot="1">
       <c r="A189" s="5" t="s">
         <v>3946</v>
       </c>
@@ -50072,7 +51329,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="190" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:35" ht="58.5" thickBot="1">
       <c r="A190" s="5" t="s">
         <v>5402</v>
       </c>
@@ -50179,7 +51436,7 @@
         <v>5432</v>
       </c>
     </row>
-    <row r="191" spans="1:35" ht="151.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:35" ht="151.5" thickBot="1">
       <c r="A191" s="5" t="s">
         <v>5433</v>
       </c>
@@ -50286,7 +51543,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="192" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:35" ht="64" thickBot="1">
       <c r="A192" s="5" t="s">
         <v>5463</v>
       </c>
@@ -50393,7 +51650,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="193" spans="1:35" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:35" ht="201.5" thickBot="1">
       <c r="A193" s="5" t="s">
         <v>5494</v>
       </c>
@@ -50500,7 +51757,7 @@
         <v>5522</v>
       </c>
     </row>
-    <row r="194" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:35" ht="73" thickBot="1">
       <c r="A194" s="5" t="s">
         <v>5523</v>
       </c>
@@ -50607,7 +51864,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="195" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:35" ht="58.5" thickBot="1">
       <c r="A195" s="5" t="s">
         <v>5555</v>
       </c>
@@ -50714,7 +51971,7 @@
         <v>5583</v>
       </c>
     </row>
-    <row r="196" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:35" ht="87.5" thickBot="1">
       <c r="A196" s="5" t="s">
         <v>5584</v>
       </c>
@@ -50821,7 +52078,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="197" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:35" ht="87.5" thickBot="1">
       <c r="A197" s="5" t="s">
         <v>5615</v>
       </c>
@@ -50928,7 +52185,7 @@
         <v>5646</v>
       </c>
     </row>
-    <row r="198" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:35" ht="87.5" thickBot="1">
       <c r="A198" s="5" t="s">
         <v>5647</v>
       </c>
@@ -51035,7 +52292,7 @@
         <v>5678</v>
       </c>
     </row>
-    <row r="199" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:35" ht="87.5" thickBot="1">
       <c r="A199" s="5" t="s">
         <v>5679</v>
       </c>
@@ -51142,7 +52399,7 @@
         <v>5709</v>
       </c>
     </row>
-    <row r="200" spans="1:35" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:35" ht="116.5" thickBot="1">
       <c r="A200" s="5" t="s">
         <v>5710</v>
       </c>
@@ -51249,7 +52506,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="201" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:35" ht="39" thickBot="1">
       <c r="A201" s="5" t="s">
         <v>5742</v>
       </c>
@@ -51356,7 +52613,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="202" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:35" ht="89" thickBot="1">
       <c r="A202" s="5" t="s">
         <v>5769</v>
       </c>
@@ -51463,7 +52720,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="203" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:35" ht="64" thickBot="1">
       <c r="A203" s="5" t="s">
         <v>5801</v>
       </c>
@@ -51570,7 +52827,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="204" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:35" ht="51.5" thickBot="1">
       <c r="A204" s="5" t="s">
         <v>5833</v>
       </c>
@@ -51677,7 +52934,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="205" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:35" ht="76.5" thickBot="1">
       <c r="A205" s="5" t="s">
         <v>5865</v>
       </c>
@@ -51784,7 +53041,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="206" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:35" ht="126.5" thickBot="1">
       <c r="A206" s="5" t="s">
         <v>5896</v>
       </c>
@@ -51891,7 +53148,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="207" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:35" ht="87.5" thickBot="1">
       <c r="A207" s="5" t="s">
         <v>5928</v>
       </c>
@@ -51998,7 +53255,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="208" spans="1:35" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:35" ht="87.5" thickBot="1">
       <c r="A208" s="5" t="s">
         <v>5958</v>
       </c>
@@ -52105,7 +53362,7 @@
         <v>5989</v>
       </c>
     </row>
-    <row r="209" spans="1:35" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:35" ht="189" thickBot="1">
       <c r="A209" s="5" t="s">
         <v>5990</v>
       </c>
@@ -52212,7 +53469,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="210" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:35" ht="26.5" thickBot="1">
       <c r="A210" s="5" t="s">
         <v>6021</v>
       </c>
@@ -52319,7 +53576,7 @@
         <v>6044</v>
       </c>
     </row>
-    <row r="211" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:35" ht="51.5" thickBot="1">
       <c r="A211" s="5" t="s">
         <v>6045</v>
       </c>
@@ -52426,7 +53683,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="212" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:35" ht="39" thickBot="1">
       <c r="A212" s="5" t="s">
         <v>6074</v>
       </c>
@@ -52533,7 +53790,7 @@
         <v>6102</v>
       </c>
     </row>
-    <row r="213" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:35" ht="44" thickBot="1">
       <c r="A213" s="5" t="s">
         <v>6103</v>
       </c>
@@ -52640,7 +53897,7 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="214" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:35" ht="44" thickBot="1">
       <c r="A214" s="5" t="s">
         <v>6133</v>
       </c>
@@ -52747,7 +54004,7 @@
         <v>6163</v>
       </c>
     </row>
-    <row r="215" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:35" ht="51.5" thickBot="1">
       <c r="A215" s="5" t="s">
         <v>6164</v>
       </c>
@@ -52854,7 +54111,7 @@
         <v>6193</v>
       </c>
     </row>
-    <row r="216" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:35" ht="44" thickBot="1">
       <c r="A216" s="5" t="s">
         <v>6194</v>
       </c>
@@ -52961,7 +54218,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="217" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:35" ht="29.5" thickBot="1">
       <c r="A217" s="5" t="s">
         <v>6223</v>
       </c>
@@ -53068,7 +54325,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="218" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:35" ht="76.5" thickBot="1">
       <c r="A218" s="5" t="s">
         <v>6244</v>
       </c>
@@ -53175,7 +54432,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="219" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:35" ht="29.5" thickBot="1">
       <c r="A219" s="5" t="s">
         <v>6276</v>
       </c>
@@ -53282,7 +54539,7 @@
         <v>6301</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:35" ht="64" thickBot="1">
       <c r="A220" s="5" t="s">
         <v>6306</v>
       </c>
@@ -53389,7 +54646,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="221" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:35" ht="29.5" thickBot="1">
       <c r="A221" s="5" t="s">
         <v>6336</v>
       </c>
@@ -53496,7 +54753,7 @@
         <v>6366</v>
       </c>
     </row>
-    <row r="222" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:35" ht="26.5" thickBot="1">
       <c r="A222" s="5" t="s">
         <v>6367</v>
       </c>
@@ -53603,7 +54860,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="223" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:35" ht="64" thickBot="1">
       <c r="A223" s="5" t="s">
         <v>6391</v>
       </c>
@@ -53710,7 +54967,7 @@
         <v>6419</v>
       </c>
     </row>
-    <row r="224" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:35" ht="44" thickBot="1">
       <c r="A224" s="5" t="s">
         <v>6420</v>
       </c>
@@ -53817,7 +55074,7 @@
         <v>6449</v>
       </c>
     </row>
-    <row r="225" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:35" ht="51.5" thickBot="1">
       <c r="A225" s="5" t="s">
         <v>6450</v>
       </c>
@@ -53924,7 +55181,7 @@
         <v>6481</v>
       </c>
     </row>
-    <row r="226" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:35" ht="64" thickBot="1">
       <c r="A226" s="5" t="s">
         <v>6482</v>
       </c>
@@ -54031,7 +55288,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="227" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:35" ht="26.5" thickBot="1">
       <c r="A227" s="5" t="s">
         <v>6513</v>
       </c>
@@ -54138,7 +55395,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="228" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:35" ht="51.5" thickBot="1">
       <c r="A228" s="5" t="s">
         <v>6544</v>
       </c>
@@ -54245,7 +55502,7 @@
         <v>6574</v>
       </c>
     </row>
-    <row r="229" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:35" ht="26.5" thickBot="1">
       <c r="A229" s="5" t="s">
         <v>6575</v>
       </c>
@@ -54352,7 +55609,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="230" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:35" ht="39" thickBot="1">
       <c r="A230" s="5" t="s">
         <v>6603</v>
       </c>
@@ -54459,7 +55716,7 @@
         <v>6634</v>
       </c>
     </row>
-    <row r="231" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:35" ht="76.5" thickBot="1">
       <c r="A231" s="5" t="s">
         <v>6635</v>
       </c>
@@ -54566,7 +55823,7 @@
         <v>6665</v>
       </c>
     </row>
-    <row r="232" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:35" ht="39" thickBot="1">
       <c r="A232" s="5" t="s">
         <v>186</v>
       </c>
@@ -54673,7 +55930,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="233" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:35" ht="29.5" thickBot="1">
       <c r="A233" s="5" t="s">
         <v>6666</v>
       </c>
@@ -54780,7 +56037,7 @@
         <v>6694</v>
       </c>
     </row>
-    <row r="234" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:35" ht="76.5" thickBot="1">
       <c r="A234" s="5" t="s">
         <v>6695</v>
       </c>
@@ -54887,7 +56144,7 @@
         <v>6724</v>
       </c>
     </row>
-    <row r="235" spans="1:35" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:35" ht="58.5" thickBot="1">
       <c r="A235" s="5" t="s">
         <v>6725</v>
       </c>
@@ -54994,7 +56251,7 @@
         <v>6754</v>
       </c>
     </row>
-    <row r="236" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:35" ht="39" thickBot="1">
       <c r="A236" s="5" t="s">
         <v>2114</v>
       </c>
@@ -55101,7 +56358,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="237" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:35" ht="51.5" thickBot="1">
       <c r="A237" s="5" t="s">
         <v>6757</v>
       </c>
@@ -55208,7 +56465,7 @@
         <v>6788</v>
       </c>
     </row>
-    <row r="238" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:35" ht="76.5" thickBot="1">
       <c r="A238" s="5" t="s">
         <v>6789</v>
       </c>
@@ -55315,7 +56572,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="239" spans="1:35" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:35" ht="44" thickBot="1">
       <c r="A239" s="5" t="s">
         <v>6819</v>
       </c>
@@ -55422,7 +56679,7 @@
         <v>6847</v>
       </c>
     </row>
-    <row r="240" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:35" ht="26.5" thickBot="1">
       <c r="A240" s="5" t="s">
         <v>6848</v>
       </c>
@@ -55529,7 +56786,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="241" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:35" ht="51.5" thickBot="1">
       <c r="A241" s="5" t="s">
         <v>6879</v>
       </c>
@@ -55636,7 +56893,7 @@
         <v>6908</v>
       </c>
     </row>
-    <row r="242" spans="1:35" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:35" ht="102" thickBot="1">
       <c r="A242" s="5" t="s">
         <v>6909</v>
       </c>
@@ -55743,7 +57000,7 @@
         <v>6940</v>
       </c>
     </row>
-    <row r="243" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:35" ht="51.5" thickBot="1">
       <c r="A243" s="5" t="s">
         <v>6941</v>
       </c>
@@ -55850,7 +57107,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="244" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:35" ht="51.5" thickBot="1">
       <c r="A244" s="5" t="s">
         <v>6969</v>
       </c>
@@ -55957,7 +57214,7 @@
         <v>6996</v>
       </c>
     </row>
-    <row r="245" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:35" ht="64" thickBot="1">
       <c r="A245" s="5" t="s">
         <v>6997</v>
       </c>
@@ -56064,7 +57321,7 @@
         <v>7027</v>
       </c>
     </row>
-    <row r="246" spans="1:35" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:35" ht="73" thickBot="1">
       <c r="A246" s="5" t="s">
         <v>7028</v>
       </c>
@@ -56171,7 +57428,7 @@
         <v>7058</v>
       </c>
     </row>
-    <row r="247" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:35" ht="89" thickBot="1">
       <c r="A247" s="5" t="s">
         <v>8939</v>
       </c>
@@ -56278,7 +57535,7 @@
         <v>7195</v>
       </c>
     </row>
-    <row r="248" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:35" ht="93.5" thickBot="1">
       <c r="A248" s="5" t="s">
         <v>7238</v>
       </c>
@@ -56385,7 +57642,7 @@
         <v>7268</v>
       </c>
     </row>
-    <row r="249" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:35" ht="39" thickBot="1">
       <c r="A249" s="5" t="s">
         <v>7363</v>
       </c>
@@ -56492,7 +57749,7 @@
         <v>7293</v>
       </c>
     </row>
-    <row r="250" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:35" ht="39" thickBot="1">
       <c r="A250" s="5" t="s">
         <v>7294</v>
       </c>
@@ -56599,7 +57856,7 @@
         <v>7325</v>
       </c>
     </row>
-    <row r="251" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:35" ht="51.5" thickBot="1">
       <c r="A251" s="5" t="s">
         <v>7326</v>
       </c>
@@ -56706,7 +57963,7 @@
         <v>7355</v>
       </c>
     </row>
-    <row r="252" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:35" ht="39" thickBot="1">
       <c r="A252" s="5" t="s">
         <v>7356</v>
       </c>
@@ -56813,7 +58070,7 @@
         <v>7389</v>
       </c>
     </row>
-    <row r="253" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:35" ht="16" thickBot="1">
       <c r="A253" s="5" t="s">
         <v>7552</v>
       </c>
@@ -56920,7 +58177,7 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="254" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:35" ht="16" thickBot="1">
       <c r="A254" s="5" t="s">
         <v>7558</v>
       </c>
@@ -57027,7 +58284,7 @@
         <v>7566</v>
       </c>
     </row>
-    <row r="255" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:35" ht="51.5" thickBot="1">
       <c r="A255" s="5" t="s">
         <v>8940</v>
       </c>
@@ -57134,7 +58391,7 @@
         <v>8970</v>
       </c>
     </row>
-    <row r="256" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:35" ht="78" thickBot="1">
       <c r="A256" s="5" t="s">
         <v>8971</v>
       </c>
@@ -57241,7 +58498,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="257" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:35" ht="26.5" thickBot="1">
       <c r="A257" s="5" t="s">
         <v>7567</v>
       </c>
@@ -57348,7 +58605,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="258" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:35" ht="31.5" thickBot="1">
       <c r="A258" s="5" t="s">
         <v>9545</v>
       </c>
@@ -57455,7 +58712,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="259" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:35" ht="114" thickBot="1">
       <c r="A259" s="5" t="s">
         <v>7622</v>
       </c>
@@ -57562,7 +58819,7 @@
         <v>7653</v>
       </c>
     </row>
-    <row r="260" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:35" ht="78" thickBot="1">
       <c r="A260" s="5" t="s">
         <v>7654</v>
       </c>
@@ -57669,7 +58926,7 @@
         <v>7684</v>
       </c>
     </row>
-    <row r="261" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:35" ht="51.5" thickBot="1">
       <c r="A261" s="5" t="s">
         <v>7685</v>
       </c>
@@ -57776,7 +59033,7 @@
         <v>7716</v>
       </c>
     </row>
-    <row r="262" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:35" ht="93.5" thickBot="1">
       <c r="A262" s="5" t="s">
         <v>7717</v>
       </c>
@@ -57883,7 +59140,7 @@
         <v>7748</v>
       </c>
     </row>
-    <row r="263" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:35" ht="31.5" thickBot="1">
       <c r="A263" s="5" t="s">
         <v>7749</v>
       </c>
@@ -57990,7 +59247,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="264" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:35" ht="93.5" thickBot="1">
       <c r="A264" s="5" t="s">
         <v>7779</v>
       </c>
@@ -58097,7 +59354,7 @@
         <v>7809</v>
       </c>
     </row>
-    <row r="265" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:35" ht="51.5" thickBot="1">
       <c r="A265" s="5" t="s">
         <v>7810</v>
       </c>
@@ -58204,7 +59461,7 @@
         <v>7840</v>
       </c>
     </row>
-    <row r="266" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:35" ht="93.5" thickBot="1">
       <c r="A266" s="5" t="s">
         <v>7779</v>
       </c>
@@ -58311,7 +59568,7 @@
         <v>7809</v>
       </c>
     </row>
-    <row r="267" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:35" ht="51.5" thickBot="1">
       <c r="A267" s="5" t="s">
         <v>7841</v>
       </c>
@@ -58418,7 +59675,7 @@
         <v>7868</v>
       </c>
     </row>
-    <row r="268" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:35" ht="93.5" thickBot="1">
       <c r="A268" s="5" t="s">
         <v>7869</v>
       </c>
@@ -58525,7 +59782,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="269" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:35" ht="51.5" thickBot="1">
       <c r="A269" s="5" t="s">
         <v>7901</v>
       </c>
@@ -58632,7 +59889,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="270" spans="1:35" ht="388" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:35" ht="388" thickBot="1">
       <c r="A270" s="5" t="s">
         <v>7932</v>
       </c>
@@ -58739,7 +59996,7 @@
         <v>7963</v>
       </c>
     </row>
-    <row r="271" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:35" ht="39" thickBot="1">
       <c r="A271" s="5" t="s">
         <v>7964</v>
       </c>
@@ -58846,7 +60103,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="272" spans="1:35" ht="176.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:35" ht="176.5" thickBot="1">
       <c r="A272" s="5" t="s">
         <v>7996</v>
       </c>
@@ -58953,7 +60210,7 @@
         <v>8027</v>
       </c>
     </row>
-    <row r="273" spans="1:35" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:35" ht="76.5" thickBot="1">
       <c r="A273" s="5" t="s">
         <v>8028</v>
       </c>
@@ -59060,7 +60317,7 @@
         <v>8058</v>
       </c>
     </row>
-    <row r="274" spans="1:35" ht="202" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:35" ht="202" thickBot="1">
       <c r="A274" s="5" t="s">
         <v>8059</v>
       </c>
@@ -59167,7 +60424,7 @@
         <v>8090</v>
       </c>
     </row>
-    <row r="275" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:35" ht="89" thickBot="1">
       <c r="A275" s="5" t="s">
         <v>8091</v>
       </c>
@@ -59274,7 +60531,7 @@
         <v>8122</v>
       </c>
     </row>
-    <row r="276" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:35" ht="26.5" thickBot="1">
       <c r="A276" s="5" t="s">
         <v>8123</v>
       </c>
@@ -59381,7 +60638,7 @@
         <v>8152</v>
       </c>
     </row>
-    <row r="277" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:35" ht="51.5" thickBot="1">
       <c r="A277" s="5" t="s">
         <v>8153</v>
       </c>
@@ -59488,7 +60745,7 @@
         <v>8183</v>
       </c>
     </row>
-    <row r="278" spans="1:35" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:35" ht="47" thickBot="1">
       <c r="A278" s="5" t="s">
         <v>8184</v>
       </c>
@@ -59595,7 +60852,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="279" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:35" ht="51.5" thickBot="1">
       <c r="A279" s="5" t="s">
         <v>8215</v>
       </c>
@@ -59702,7 +60959,7 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="280" spans="1:35" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:35" ht="62.5" thickBot="1">
       <c r="A280" s="5" t="s">
         <v>8245</v>
       </c>
@@ -59809,7 +61066,7 @@
         <v>8276</v>
       </c>
     </row>
-    <row r="281" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:35" ht="64" thickBot="1">
       <c r="A281" s="5" t="s">
         <v>8277</v>
       </c>
@@ -59916,7 +61173,7 @@
         <v>8308</v>
       </c>
     </row>
-    <row r="282" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:35" ht="31.5" thickBot="1">
       <c r="A282" s="5" t="s">
         <v>8309</v>
       </c>
@@ -60023,7 +61280,7 @@
         <v>8339</v>
       </c>
     </row>
-    <row r="283" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:35" ht="64" thickBot="1">
       <c r="A283" s="5" t="s">
         <v>8340</v>
       </c>
@@ -60130,7 +61387,7 @@
         <v>8369</v>
       </c>
     </row>
-    <row r="284" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:35" ht="89" thickBot="1">
       <c r="A284" s="5" t="s">
         <v>8370</v>
       </c>
@@ -60237,7 +61494,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="285" spans="1:35" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:35" ht="47" thickBot="1">
       <c r="A285" s="5" t="s">
         <v>8184</v>
       </c>
@@ -60344,7 +61601,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="286" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:35" ht="26.5" thickBot="1">
       <c r="A286" s="5" t="s">
         <v>8402</v>
       </c>
@@ -60451,7 +61708,7 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="287" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:35" ht="64" thickBot="1">
       <c r="A287" s="5" t="s">
         <v>8431</v>
       </c>
@@ -60558,7 +61815,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="288" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:35" ht="39" thickBot="1">
       <c r="A288" s="5" t="s">
         <v>8461</v>
       </c>
@@ -60665,7 +61922,7 @@
         <v>8492</v>
       </c>
     </row>
-    <row r="289" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:35" ht="64" thickBot="1">
       <c r="A289" s="5" t="s">
         <v>8493</v>
       </c>
@@ -60772,7 +62029,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="290" spans="1:35" ht="139" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:35" ht="139" thickBot="1">
       <c r="A290" s="5" t="s">
         <v>8525</v>
       </c>
@@ -60879,7 +62136,7 @@
         <v>8556</v>
       </c>
     </row>
-    <row r="291" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:35" ht="64" thickBot="1">
       <c r="A291" s="5" t="s">
         <v>2522</v>
       </c>
@@ -60986,7 +62243,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="292" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:35" ht="126.5" thickBot="1">
       <c r="A292" s="5" t="s">
         <v>8559</v>
       </c>
@@ -61093,7 +62350,7 @@
         <v>8590</v>
       </c>
     </row>
-    <row r="293" spans="1:35" ht="301.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:35" ht="301.5" thickBot="1">
       <c r="A293" s="5" t="s">
         <v>8591</v>
       </c>
@@ -61200,7 +62457,7 @@
         <v>8622</v>
       </c>
     </row>
-    <row r="294" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:35" ht="78" thickBot="1">
       <c r="A294" s="5" t="s">
         <v>8623</v>
       </c>
@@ -61307,7 +62564,7 @@
         <v>8653</v>
       </c>
     </row>
-    <row r="295" spans="1:35" ht="301.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:35" ht="301.5" thickBot="1">
       <c r="A295" s="5" t="s">
         <v>8591</v>
       </c>
@@ -61414,7 +62671,7 @@
         <v>8622</v>
       </c>
     </row>
-    <row r="296" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:35" ht="89" thickBot="1">
       <c r="A296" s="5" t="s">
         <v>8654</v>
       </c>
@@ -61521,7 +62778,7 @@
         <v>8685</v>
       </c>
     </row>
-    <row r="297" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:35" ht="126.5" thickBot="1">
       <c r="A297" s="5" t="s">
         <v>8686</v>
       </c>
@@ -61628,7 +62885,7 @@
         <v>8717</v>
       </c>
     </row>
-    <row r="298" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:35" ht="89" thickBot="1">
       <c r="A298" s="5" t="s">
         <v>8718</v>
       </c>
@@ -61735,7 +62992,7 @@
         <v>8749</v>
       </c>
     </row>
-    <row r="299" spans="1:35" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:35" ht="201.5" thickBot="1">
       <c r="A299" s="5" t="s">
         <v>8750</v>
       </c>
@@ -61842,7 +63099,7 @@
         <v>8781</v>
       </c>
     </row>
-    <row r="300" spans="1:35" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:35" ht="47" thickBot="1">
       <c r="A300" s="5" t="s">
         <v>3337</v>
       </c>
@@ -61949,7 +63206,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="301" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:35" ht="78" thickBot="1">
       <c r="A301" s="5" t="s">
         <v>8782</v>
       </c>
@@ -62056,7 +63313,7 @@
         <v>8813</v>
       </c>
     </row>
-    <row r="302" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:35" ht="89" thickBot="1">
       <c r="A302" s="5" t="s">
         <v>8814</v>
       </c>
@@ -62163,7 +63420,7 @@
         <v>8844</v>
       </c>
     </row>
-    <row r="303" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:35" ht="64" thickBot="1">
       <c r="A303" s="5" t="s">
         <v>3401</v>
       </c>
@@ -62270,7 +63527,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="304" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:35" ht="114" thickBot="1">
       <c r="A304" s="5" t="s">
         <v>3433</v>
       </c>
@@ -62377,7 +63634,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="305" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:35" ht="64" thickBot="1">
       <c r="A305" s="5" t="s">
         <v>8845</v>
       </c>
@@ -62484,7 +63741,7 @@
         <v>8861</v>
       </c>
     </row>
-    <row r="306" spans="1:35" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:35" ht="114" thickBot="1">
       <c r="A306" s="5" t="s">
         <v>3497</v>
       </c>
@@ -62591,7 +63848,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="307" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:35" ht="78" thickBot="1">
       <c r="A307" s="5" t="s">
         <v>3527</v>
       </c>
@@ -62698,7 +63955,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="308" spans="1:35" ht="62.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:35" ht="62.5" thickBot="1">
       <c r="A308" s="5" t="s">
         <v>3559</v>
       </c>
@@ -62805,7 +64062,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="309" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:35" ht="89" thickBot="1">
       <c r="A309" s="5" t="s">
         <v>8862</v>
       </c>
@@ -62912,7 +64169,7 @@
         <v>8893</v>
       </c>
     </row>
-    <row r="310" spans="1:35" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:35" ht="126.5" thickBot="1">
       <c r="A310" s="5" t="s">
         <v>8894</v>
       </c>
@@ -63019,7 +64276,7 @@
         <v>8925</v>
       </c>
     </row>
-    <row r="311" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:35" ht="51.5" thickBot="1">
       <c r="A311" s="5" t="s">
         <v>3589</v>
       </c>
@@ -63126,7 +64383,7 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="312" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:35" ht="64" thickBot="1">
       <c r="A312" s="5" t="s">
         <v>3618</v>
       </c>
@@ -63233,7 +64490,7 @@
         <v>3648</v>
       </c>
     </row>
-    <row r="313" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:35" ht="64" thickBot="1">
       <c r="A313" s="5" t="s">
         <v>3649</v>
       </c>
@@ -63340,7 +64597,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="314" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:35" ht="78" thickBot="1">
       <c r="A314" s="5" t="s">
         <v>3679</v>
       </c>
@@ -63447,7 +64704,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="315" spans="1:35" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:35" ht="47" thickBot="1">
       <c r="A315" s="5" t="s">
         <v>3337</v>
       </c>
@@ -63554,7 +64811,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="316" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:35" ht="93.5" thickBot="1">
       <c r="A316" s="5" t="s">
         <v>3369</v>
       </c>
@@ -63661,7 +64918,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="317" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:35" ht="51.5" thickBot="1">
       <c r="A317" s="5" t="s">
         <v>9001</v>
       </c>
@@ -63768,7 +65025,7 @@
         <v>9031</v>
       </c>
     </row>
-    <row r="318" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:35" ht="26.5" thickBot="1">
       <c r="A318" s="5" t="s">
         <v>9032</v>
       </c>
@@ -63875,7 +65132,7 @@
         <v>9062</v>
       </c>
     </row>
-    <row r="319" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:35" ht="16" thickBot="1">
       <c r="A319" s="5" t="s">
         <v>9063</v>
       </c>
@@ -63982,7 +65239,7 @@
         <v>9092</v>
       </c>
     </row>
-    <row r="320" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:35" ht="39" thickBot="1">
       <c r="A320" s="5" t="s">
         <v>9093</v>
       </c>
@@ -64089,7 +65346,7 @@
         <v>9123</v>
       </c>
     </row>
-    <row r="321" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:35" ht="51.5" thickBot="1">
       <c r="A321" s="5" t="s">
         <v>9124</v>
       </c>
@@ -64196,7 +65453,7 @@
         <v>9154</v>
       </c>
     </row>
-    <row r="322" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:35" ht="26.5" thickBot="1">
       <c r="A322" s="5" t="s">
         <v>9187</v>
       </c>
@@ -64303,7 +65560,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="323" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:35" ht="39" thickBot="1">
       <c r="A323" s="5" t="s">
         <v>9214</v>
       </c>
@@ -64410,7 +65667,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="324" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:35" ht="31.5" thickBot="1">
       <c r="A324" s="5" t="s">
         <v>9155</v>
       </c>
@@ -64517,7 +65774,7 @@
         <v>9186</v>
       </c>
     </row>
-    <row r="325" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:35" ht="26.5" thickBot="1">
       <c r="A325" s="5" t="s">
         <v>9246</v>
       </c>
@@ -64624,7 +65881,7 @@
         <v>9272</v>
       </c>
     </row>
-    <row r="326" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:35" ht="39" thickBot="1">
       <c r="A326" s="5" t="s">
         <v>9273</v>
       </c>
@@ -64731,7 +65988,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="327" spans="1:35" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:35" ht="26.5" thickBot="1">
       <c r="A327" s="5" t="s">
         <v>9302</v>
       </c>
@@ -64838,7 +66095,7 @@
         <v>9332</v>
       </c>
     </row>
-    <row r="328" spans="1:35" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:35" ht="101.5" thickBot="1">
       <c r="A328" s="5" t="s">
         <v>9333</v>
       </c>
@@ -64945,7 +66202,7 @@
         <v>9364</v>
       </c>
     </row>
-    <row r="329" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:35" ht="51.5" thickBot="1">
       <c r="A329" s="5" t="s">
         <v>2943</v>
       </c>
@@ -65052,7 +66309,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="330" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:35" ht="31.5" thickBot="1">
       <c r="A330" s="5" t="s">
         <v>9366</v>
       </c>
@@ -65159,7 +66416,7 @@
         <v>9396</v>
       </c>
     </row>
-    <row r="331" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:35" ht="64" thickBot="1">
       <c r="A331" s="5" t="s">
         <v>9397</v>
       </c>
@@ -65266,7 +66523,7 @@
         <v>9422</v>
       </c>
     </row>
-    <row r="332" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:35" ht="39" thickBot="1">
       <c r="A332" s="5" t="s">
         <v>9423</v>
       </c>
@@ -65373,7 +66630,7 @@
         <v>9452</v>
       </c>
     </row>
-    <row r="333" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:35" ht="64" thickBot="1">
       <c r="A333" s="5" t="s">
         <v>3123</v>
       </c>
@@ -65480,7 +66737,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="334" spans="1:35" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:35" ht="89" thickBot="1">
       <c r="A334" s="5" t="s">
         <v>9455</v>
       </c>
@@ -65587,7 +66844,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="335" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:35" ht="16" thickBot="1">
       <c r="A335" s="5" t="s">
         <v>9457</v>
       </c>
@@ -65694,7 +66951,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="336" spans="1:35" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:35" ht="51.5" thickBot="1">
       <c r="A336" s="5" t="s">
         <v>9483</v>
       </c>
@@ -65801,7 +67058,7 @@
         <v>9512</v>
       </c>
     </row>
-    <row r="337" spans="1:35" ht="93.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:35" ht="93.5" thickBot="1">
       <c r="A337" s="5" t="s">
         <v>9546</v>
       </c>
@@ -65908,7 +67165,7 @@
         <v>9576</v>
       </c>
     </row>
-    <row r="338" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:35" ht="39" thickBot="1">
       <c r="A338" s="5" t="s">
         <v>9577</v>
       </c>
@@ -66015,7 +67272,7 @@
         <v>9585</v>
       </c>
     </row>
-    <row r="339" spans="1:35" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:35" ht="31.5" thickBot="1">
       <c r="A339" s="5" t="s">
         <v>9513</v>
       </c>
@@ -66122,7 +67379,7 @@
         <v>9544</v>
       </c>
     </row>
-    <row r="340" spans="1:35" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:35" ht="78" thickBot="1">
       <c r="A340" s="5" t="s">
         <v>9586</v>
       </c>
@@ -66229,7 +67486,7 @@
         <v>9617</v>
       </c>
     </row>
-    <row r="341" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:35" ht="39" thickBot="1">
       <c r="A341" s="5" t="s">
         <v>9618</v>
       </c>
@@ -66336,7 +67593,7 @@
         <v>9648</v>
       </c>
     </row>
-    <row r="342" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:35" ht="64" thickBot="1">
       <c r="A342" s="5" t="s">
         <v>9649</v>
       </c>
@@ -66443,7 +67700,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="343" spans="1:35" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:35" ht="47" thickBot="1">
       <c r="A343" s="5" t="s">
         <v>9670</v>
       </c>
@@ -66550,7 +67807,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row r="344" spans="1:35" ht="164" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:35" ht="164" thickBot="1">
       <c r="A344" s="5" t="s">
         <v>9703</v>
       </c>
@@ -66657,7 +67914,7 @@
         <v>9734</v>
       </c>
     </row>
-    <row r="345" spans="1:35" ht="62.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:35" ht="62.5" customHeight="1" thickBot="1">
       <c r="A345" s="5" t="s">
         <v>9737</v>
       </c>
@@ -66764,7 +68021,7 @@
         <v>9799</v>
       </c>
     </row>
-    <row r="346" spans="1:35" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:35" ht="64" thickBot="1">
       <c r="A346" s="2" t="s">
         <v>9739</v>
       </c>
@@ -66869,6 +68126,1397 @@
       </c>
       <c r="AI346" s="2" t="s">
         <v>9769</v>
+      </c>
+    </row>
+    <row r="347" spans="1:35" ht="101.5" thickBot="1">
+      <c r="A347" s="5" t="s">
+        <v>9800</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>9801</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>9801</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>9801</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>10186</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>10187</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>10188</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>10189</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>10190</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>10191</v>
+      </c>
+      <c r="K347" s="2" t="s">
+        <v>10192</v>
+      </c>
+      <c r="L347" s="2" t="s">
+        <v>10193</v>
+      </c>
+      <c r="M347" s="2" t="s">
+        <v>9801</v>
+      </c>
+      <c r="N347" s="2" t="s">
+        <v>10194</v>
+      </c>
+      <c r="O347" s="2" t="s">
+        <v>10195</v>
+      </c>
+      <c r="P347" s="2" t="s">
+        <v>10196</v>
+      </c>
+      <c r="Q347" s="2" t="s">
+        <v>10197</v>
+      </c>
+      <c r="R347" s="2" t="s">
+        <v>10198</v>
+      </c>
+      <c r="S347" s="2" t="s">
+        <v>10199</v>
+      </c>
+      <c r="T347" s="2" t="s">
+        <v>10200</v>
+      </c>
+      <c r="U347" s="2" t="s">
+        <v>10201</v>
+      </c>
+      <c r="V347" s="2" t="s">
+        <v>10202</v>
+      </c>
+      <c r="W347" s="2" t="s">
+        <v>10203</v>
+      </c>
+      <c r="X347" s="2" t="s">
+        <v>10204</v>
+      </c>
+      <c r="Y347" s="2" t="s">
+        <v>10205</v>
+      </c>
+      <c r="Z347" s="2" t="s">
+        <v>10206</v>
+      </c>
+      <c r="AA347" s="2" t="s">
+        <v>10207</v>
+      </c>
+      <c r="AB347" s="2" t="s">
+        <v>10208</v>
+      </c>
+      <c r="AC347" s="2" t="s">
+        <v>10209</v>
+      </c>
+      <c r="AD347" s="2" t="s">
+        <v>10210</v>
+      </c>
+      <c r="AE347" s="2" t="s">
+        <v>10211</v>
+      </c>
+      <c r="AF347" s="2" t="s">
+        <v>10212</v>
+      </c>
+      <c r="AG347" s="2" t="s">
+        <v>10213</v>
+      </c>
+      <c r="AH347" s="2" t="s">
+        <v>10214</v>
+      </c>
+      <c r="AI347" s="2" t="s">
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="348" spans="1:35" ht="189" thickBot="1">
+      <c r="A348" s="5" t="s">
+        <v>9802</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>9803</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>9803</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>9803</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>9804</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>9805</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>9806</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>9807</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>9808</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>9809</v>
+      </c>
+      <c r="K348" s="2" t="s">
+        <v>9810</v>
+      </c>
+      <c r="L348" s="2" t="s">
+        <v>9811</v>
+      </c>
+      <c r="M348" s="2" t="s">
+        <v>9803</v>
+      </c>
+      <c r="N348" s="2" t="s">
+        <v>9812</v>
+      </c>
+      <c r="O348" s="2" t="s">
+        <v>9813</v>
+      </c>
+      <c r="P348" s="2" t="s">
+        <v>9814</v>
+      </c>
+      <c r="Q348" s="2" t="s">
+        <v>9815</v>
+      </c>
+      <c r="R348" s="2" t="s">
+        <v>9816</v>
+      </c>
+      <c r="S348" s="2" t="s">
+        <v>9817</v>
+      </c>
+      <c r="T348" s="2" t="s">
+        <v>9818</v>
+      </c>
+      <c r="U348" s="2" t="s">
+        <v>9819</v>
+      </c>
+      <c r="V348" s="2" t="s">
+        <v>9820</v>
+      </c>
+      <c r="W348" s="2" t="s">
+        <v>9821</v>
+      </c>
+      <c r="X348" s="2" t="s">
+        <v>9822</v>
+      </c>
+      <c r="Y348" s="2" t="s">
+        <v>9823</v>
+      </c>
+      <c r="Z348" s="2" t="s">
+        <v>9824</v>
+      </c>
+      <c r="AA348" s="2" t="s">
+        <v>9825</v>
+      </c>
+      <c r="AB348" s="2" t="s">
+        <v>9826</v>
+      </c>
+      <c r="AC348" s="2" t="s">
+        <v>9827</v>
+      </c>
+      <c r="AD348" s="2" t="s">
+        <v>9828</v>
+      </c>
+      <c r="AE348" s="2" t="s">
+        <v>9829</v>
+      </c>
+      <c r="AF348" s="2" t="s">
+        <v>9830</v>
+      </c>
+      <c r="AG348" s="2" t="s">
+        <v>9831</v>
+      </c>
+      <c r="AH348" s="2" t="s">
+        <v>9832</v>
+      </c>
+      <c r="AI348" s="2" t="s">
+        <v>9833</v>
+      </c>
+    </row>
+    <row r="349" spans="1:35" ht="51.5" thickBot="1">
+      <c r="A349" s="5" t="s">
+        <v>9834</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>9835</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>9835</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>9835</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>9836</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>9837</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>9838</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>9839</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>9840</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>9841</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>9842</v>
+      </c>
+      <c r="L349" s="2" t="s">
+        <v>9843</v>
+      </c>
+      <c r="M349" s="2" t="s">
+        <v>9835</v>
+      </c>
+      <c r="N349" s="2" t="s">
+        <v>9844</v>
+      </c>
+      <c r="O349" s="2" t="s">
+        <v>9845</v>
+      </c>
+      <c r="P349" s="2" t="s">
+        <v>9846</v>
+      </c>
+      <c r="Q349" s="2" t="s">
+        <v>9847</v>
+      </c>
+      <c r="R349" s="2" t="s">
+        <v>9848</v>
+      </c>
+      <c r="S349" s="2" t="s">
+        <v>9849</v>
+      </c>
+      <c r="T349" s="2" t="s">
+        <v>9850</v>
+      </c>
+      <c r="U349" s="2" t="s">
+        <v>9851</v>
+      </c>
+      <c r="V349" s="2" t="s">
+        <v>9852</v>
+      </c>
+      <c r="W349" s="2" t="s">
+        <v>9853</v>
+      </c>
+      <c r="X349" s="2" t="s">
+        <v>9854</v>
+      </c>
+      <c r="Y349" s="2" t="s">
+        <v>9855</v>
+      </c>
+      <c r="Z349" s="2" t="s">
+        <v>9856</v>
+      </c>
+      <c r="AA349" s="2" t="s">
+        <v>9857</v>
+      </c>
+      <c r="AB349" s="2" t="s">
+        <v>9858</v>
+      </c>
+      <c r="AC349" s="2" t="s">
+        <v>9859</v>
+      </c>
+      <c r="AD349" s="2" t="s">
+        <v>9860</v>
+      </c>
+      <c r="AE349" s="2" t="s">
+        <v>9861</v>
+      </c>
+      <c r="AF349" s="2" t="s">
+        <v>9862</v>
+      </c>
+      <c r="AG349" s="2" t="s">
+        <v>9863</v>
+      </c>
+      <c r="AH349" s="2" t="s">
+        <v>9864</v>
+      </c>
+      <c r="AI349" s="2" t="s">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="350" spans="1:35" ht="339" thickBot="1">
+      <c r="A350" s="5" t="s">
+        <v>9866</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>9867</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>9867</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>9867</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>9868</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>9869</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>9870</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>9871</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>9872</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>9873</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>9874</v>
+      </c>
+      <c r="L350" s="2" t="s">
+        <v>9875</v>
+      </c>
+      <c r="M350" s="2" t="s">
+        <v>9867</v>
+      </c>
+      <c r="N350" s="2" t="s">
+        <v>9876</v>
+      </c>
+      <c r="O350" s="2" t="s">
+        <v>9877</v>
+      </c>
+      <c r="P350" s="2" t="s">
+        <v>9878</v>
+      </c>
+      <c r="Q350" s="2" t="s">
+        <v>9879</v>
+      </c>
+      <c r="R350" s="2" t="s">
+        <v>9880</v>
+      </c>
+      <c r="S350" s="2" t="s">
+        <v>9881</v>
+      </c>
+      <c r="T350" s="2" t="s">
+        <v>9882</v>
+      </c>
+      <c r="U350" s="2" t="s">
+        <v>9883</v>
+      </c>
+      <c r="V350" s="2" t="s">
+        <v>9884</v>
+      </c>
+      <c r="W350" s="2" t="s">
+        <v>9885</v>
+      </c>
+      <c r="X350" s="2" t="s">
+        <v>9886</v>
+      </c>
+      <c r="Y350" s="2" t="s">
+        <v>9887</v>
+      </c>
+      <c r="Z350" s="2" t="s">
+        <v>9888</v>
+      </c>
+      <c r="AA350" s="2" t="s">
+        <v>9889</v>
+      </c>
+      <c r="AB350" s="2" t="s">
+        <v>9890</v>
+      </c>
+      <c r="AC350" s="2" t="s">
+        <v>9891</v>
+      </c>
+      <c r="AD350" s="2" t="s">
+        <v>9892</v>
+      </c>
+      <c r="AE350" s="2" t="s">
+        <v>9893</v>
+      </c>
+      <c r="AF350" s="2" t="s">
+        <v>9894</v>
+      </c>
+      <c r="AG350" s="2" t="s">
+        <v>9895</v>
+      </c>
+      <c r="AH350" s="2" t="s">
+        <v>9896</v>
+      </c>
+      <c r="AI350" s="2" t="s">
+        <v>9897</v>
+      </c>
+    </row>
+    <row r="351" spans="1:35" ht="51.5" thickBot="1">
+      <c r="A351" s="5" t="s">
+        <v>9898</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>9899</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>9899</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>9899</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>9900</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>9901</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>9902</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>9903</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>9904</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>9905</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>9906</v>
+      </c>
+      <c r="L351" s="2" t="s">
+        <v>9907</v>
+      </c>
+      <c r="M351" s="2" t="s">
+        <v>9899</v>
+      </c>
+      <c r="N351" s="2" t="s">
+        <v>9908</v>
+      </c>
+      <c r="O351" s="2" t="s">
+        <v>9909</v>
+      </c>
+      <c r="P351" s="2" t="s">
+        <v>9910</v>
+      </c>
+      <c r="Q351" s="2" t="s">
+        <v>9911</v>
+      </c>
+      <c r="R351" s="2" t="s">
+        <v>9912</v>
+      </c>
+      <c r="S351" s="2" t="s">
+        <v>9913</v>
+      </c>
+      <c r="T351" s="2" t="s">
+        <v>9914</v>
+      </c>
+      <c r="U351" s="2" t="s">
+        <v>9915</v>
+      </c>
+      <c r="V351" s="2" t="s">
+        <v>9916</v>
+      </c>
+      <c r="W351" s="2" t="s">
+        <v>9917</v>
+      </c>
+      <c r="X351" s="2" t="s">
+        <v>9918</v>
+      </c>
+      <c r="Y351" s="2" t="s">
+        <v>9919</v>
+      </c>
+      <c r="Z351" s="2" t="s">
+        <v>9920</v>
+      </c>
+      <c r="AA351" s="2" t="s">
+        <v>9921</v>
+      </c>
+      <c r="AB351" s="2" t="s">
+        <v>9922</v>
+      </c>
+      <c r="AC351" s="2" t="s">
+        <v>9923</v>
+      </c>
+      <c r="AD351" s="2" t="s">
+        <v>9924</v>
+      </c>
+      <c r="AE351" s="2" t="s">
+        <v>9925</v>
+      </c>
+      <c r="AF351" s="2" t="s">
+        <v>9926</v>
+      </c>
+      <c r="AG351" s="2" t="s">
+        <v>9927</v>
+      </c>
+      <c r="AH351" s="2" t="s">
+        <v>9928</v>
+      </c>
+      <c r="AI351" s="2" t="s">
+        <v>9929</v>
+      </c>
+    </row>
+    <row r="352" spans="1:35" ht="409.6" thickBot="1">
+      <c r="A352" s="5" t="s">
+        <v>9930</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>9931</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>9931</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>9931</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>9932</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>9933</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>9934</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>9935</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>9936</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>9937</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>9938</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>9939</v>
+      </c>
+      <c r="M352" s="2" t="s">
+        <v>9931</v>
+      </c>
+      <c r="N352" s="2" t="s">
+        <v>9940</v>
+      </c>
+      <c r="O352" s="2" t="s">
+        <v>9941</v>
+      </c>
+      <c r="P352" s="2" t="s">
+        <v>9942</v>
+      </c>
+      <c r="Q352" s="2" t="s">
+        <v>9943</v>
+      </c>
+      <c r="R352" s="2" t="s">
+        <v>9944</v>
+      </c>
+      <c r="S352" s="2" t="s">
+        <v>9945</v>
+      </c>
+      <c r="T352" s="2" t="s">
+        <v>9946</v>
+      </c>
+      <c r="U352" s="2" t="s">
+        <v>9947</v>
+      </c>
+      <c r="V352" s="2" t="s">
+        <v>9948</v>
+      </c>
+      <c r="W352" s="2" t="s">
+        <v>9949</v>
+      </c>
+      <c r="X352" s="2" t="s">
+        <v>9950</v>
+      </c>
+      <c r="Y352" s="2" t="s">
+        <v>9951</v>
+      </c>
+      <c r="Z352" s="2" t="s">
+        <v>9952</v>
+      </c>
+      <c r="AA352" s="2" t="s">
+        <v>9953</v>
+      </c>
+      <c r="AB352" s="2" t="s">
+        <v>9954</v>
+      </c>
+      <c r="AC352" s="2" t="s">
+        <v>9955</v>
+      </c>
+      <c r="AD352" s="2" t="s">
+        <v>9956</v>
+      </c>
+      <c r="AE352" s="2" t="s">
+        <v>9957</v>
+      </c>
+      <c r="AF352" s="2" t="s">
+        <v>9958</v>
+      </c>
+      <c r="AG352" s="2" t="s">
+        <v>9959</v>
+      </c>
+      <c r="AH352" s="2" t="s">
+        <v>9960</v>
+      </c>
+      <c r="AI352" s="2" t="s">
+        <v>9961</v>
+      </c>
+    </row>
+    <row r="353" spans="1:35" ht="39" thickBot="1">
+      <c r="A353" s="5" t="s">
+        <v>9962</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>9963</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>9963</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>9963</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>9964</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>9965</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>9966</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>9967</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>9968</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>9969</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>9970</v>
+      </c>
+      <c r="L353" s="2" t="s">
+        <v>9971</v>
+      </c>
+      <c r="M353" s="2" t="s">
+        <v>9963</v>
+      </c>
+      <c r="N353" s="2" t="s">
+        <v>9972</v>
+      </c>
+      <c r="O353" s="2" t="s">
+        <v>9973</v>
+      </c>
+      <c r="P353" s="2" t="s">
+        <v>9974</v>
+      </c>
+      <c r="Q353" s="2" t="s">
+        <v>9975</v>
+      </c>
+      <c r="R353" s="2" t="s">
+        <v>9976</v>
+      </c>
+      <c r="S353" s="2" t="s">
+        <v>9977</v>
+      </c>
+      <c r="T353" s="2" t="s">
+        <v>9978</v>
+      </c>
+      <c r="U353" s="2" t="s">
+        <v>9979</v>
+      </c>
+      <c r="V353" s="2" t="s">
+        <v>9980</v>
+      </c>
+      <c r="W353" s="2" t="s">
+        <v>9981</v>
+      </c>
+      <c r="X353" s="2" t="s">
+        <v>9982</v>
+      </c>
+      <c r="Y353" s="2" t="s">
+        <v>9983</v>
+      </c>
+      <c r="Z353" s="2" t="s">
+        <v>9984</v>
+      </c>
+      <c r="AA353" s="2" t="s">
+        <v>9985</v>
+      </c>
+      <c r="AB353" s="2" t="s">
+        <v>9986</v>
+      </c>
+      <c r="AC353" s="2" t="s">
+        <v>9987</v>
+      </c>
+      <c r="AD353" s="2" t="s">
+        <v>9988</v>
+      </c>
+      <c r="AE353" s="2" t="s">
+        <v>9989</v>
+      </c>
+      <c r="AF353" s="2" t="s">
+        <v>9990</v>
+      </c>
+      <c r="AG353" s="2" t="s">
+        <v>9991</v>
+      </c>
+      <c r="AH353" s="2" t="s">
+        <v>9992</v>
+      </c>
+      <c r="AI353" s="2" t="s">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="354" spans="1:35" ht="51.5" thickBot="1">
+      <c r="A354" s="5" t="s">
+        <v>9994</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>9995</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>9995</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>9995</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>9996</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>9997</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>9998</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>9999</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>10000</v>
+      </c>
+      <c r="J354" s="2" t="s">
+        <v>10001</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>10002</v>
+      </c>
+      <c r="L354" s="2" t="s">
+        <v>10003</v>
+      </c>
+      <c r="M354" s="2" t="s">
+        <v>9995</v>
+      </c>
+      <c r="N354" s="2" t="s">
+        <v>10004</v>
+      </c>
+      <c r="O354" s="2" t="s">
+        <v>10005</v>
+      </c>
+      <c r="P354" s="2" t="s">
+        <v>10006</v>
+      </c>
+      <c r="Q354" s="2" t="s">
+        <v>10007</v>
+      </c>
+      <c r="R354" s="2" t="s">
+        <v>10008</v>
+      </c>
+      <c r="S354" s="2" t="s">
+        <v>10009</v>
+      </c>
+      <c r="T354" s="2" t="s">
+        <v>10010</v>
+      </c>
+      <c r="U354" s="2" t="s">
+        <v>10011</v>
+      </c>
+      <c r="V354" s="2" t="s">
+        <v>10012</v>
+      </c>
+      <c r="W354" s="2" t="s">
+        <v>10013</v>
+      </c>
+      <c r="X354" s="2" t="s">
+        <v>10014</v>
+      </c>
+      <c r="Y354" s="2" t="s">
+        <v>10015</v>
+      </c>
+      <c r="Z354" s="2" t="s">
+        <v>10016</v>
+      </c>
+      <c r="AA354" s="2" t="s">
+        <v>10017</v>
+      </c>
+      <c r="AB354" s="2" t="s">
+        <v>10018</v>
+      </c>
+      <c r="AC354" s="2" t="s">
+        <v>10019</v>
+      </c>
+      <c r="AD354" s="2" t="s">
+        <v>10020</v>
+      </c>
+      <c r="AE354" s="2" t="s">
+        <v>10021</v>
+      </c>
+      <c r="AF354" s="2" t="s">
+        <v>10022</v>
+      </c>
+      <c r="AG354" s="2" t="s">
+        <v>10023</v>
+      </c>
+      <c r="AH354" s="2" t="s">
+        <v>10024</v>
+      </c>
+      <c r="AI354" s="2" t="s">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="355" spans="1:35" ht="409.6" thickBot="1">
+      <c r="A355" s="5" t="s">
+        <v>10026</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>10027</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>10027</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>10027</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>10028</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>10029</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>10030</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>10031</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>10032</v>
+      </c>
+      <c r="J355" s="2" t="s">
+        <v>10033</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>10034</v>
+      </c>
+      <c r="L355" s="2" t="s">
+        <v>10035</v>
+      </c>
+      <c r="M355" s="2" t="s">
+        <v>10027</v>
+      </c>
+      <c r="N355" s="2" t="s">
+        <v>10036</v>
+      </c>
+      <c r="O355" s="2" t="s">
+        <v>10037</v>
+      </c>
+      <c r="P355" s="2" t="s">
+        <v>10038</v>
+      </c>
+      <c r="Q355" s="2" t="s">
+        <v>10039</v>
+      </c>
+      <c r="R355" s="2" t="s">
+        <v>10040</v>
+      </c>
+      <c r="S355" s="2" t="s">
+        <v>10041</v>
+      </c>
+      <c r="T355" s="2" t="s">
+        <v>10042</v>
+      </c>
+      <c r="U355" s="2" t="s">
+        <v>10043</v>
+      </c>
+      <c r="V355" s="2" t="s">
+        <v>10044</v>
+      </c>
+      <c r="W355" s="2" t="s">
+        <v>10045</v>
+      </c>
+      <c r="X355" s="2" t="s">
+        <v>10046</v>
+      </c>
+      <c r="Y355" s="2" t="s">
+        <v>10047</v>
+      </c>
+      <c r="Z355" s="2" t="s">
+        <v>10048</v>
+      </c>
+      <c r="AA355" s="2" t="s">
+        <v>10049</v>
+      </c>
+      <c r="AB355" s="2" t="s">
+        <v>10050</v>
+      </c>
+      <c r="AC355" s="2" t="s">
+        <v>10051</v>
+      </c>
+      <c r="AD355" s="2" t="s">
+        <v>10052</v>
+      </c>
+      <c r="AE355" s="2" t="s">
+        <v>10053</v>
+      </c>
+      <c r="AF355" s="2" t="s">
+        <v>10054</v>
+      </c>
+      <c r="AG355" s="2" t="s">
+        <v>10055</v>
+      </c>
+      <c r="AH355" s="2" t="s">
+        <v>10056</v>
+      </c>
+      <c r="AI355" s="2" t="s">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="356" spans="1:35" ht="407" thickBot="1">
+      <c r="A356" s="5" t="s">
+        <v>10058</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>10059</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>10059</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>10059</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>10060</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>10061</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>10062</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>10063</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>10064</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>10065</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>10066</v>
+      </c>
+      <c r="L356" s="2" t="s">
+        <v>10067</v>
+      </c>
+      <c r="M356" s="2" t="s">
+        <v>10059</v>
+      </c>
+      <c r="N356" s="2" t="s">
+        <v>10068</v>
+      </c>
+      <c r="O356" s="2" t="s">
+        <v>10069</v>
+      </c>
+      <c r="P356" s="2" t="s">
+        <v>10070</v>
+      </c>
+      <c r="Q356" s="2" t="s">
+        <v>10071</v>
+      </c>
+      <c r="R356" s="2" t="s">
+        <v>10072</v>
+      </c>
+      <c r="S356" s="2" t="s">
+        <v>10073</v>
+      </c>
+      <c r="T356" s="2" t="s">
+        <v>10074</v>
+      </c>
+      <c r="U356" s="2" t="s">
+        <v>10075</v>
+      </c>
+      <c r="V356" s="2" t="s">
+        <v>10076</v>
+      </c>
+      <c r="W356" s="2" t="s">
+        <v>10077</v>
+      </c>
+      <c r="X356" s="2" t="s">
+        <v>10078</v>
+      </c>
+      <c r="Y356" s="2" t="s">
+        <v>10079</v>
+      </c>
+      <c r="Z356" s="2" t="s">
+        <v>10080</v>
+      </c>
+      <c r="AA356" s="2" t="s">
+        <v>10081</v>
+      </c>
+      <c r="AB356" s="2" t="s">
+        <v>10082</v>
+      </c>
+      <c r="AC356" s="2" t="s">
+        <v>10083</v>
+      </c>
+      <c r="AD356" s="2" t="s">
+        <v>10084</v>
+      </c>
+      <c r="AE356" s="2" t="s">
+        <v>10085</v>
+      </c>
+      <c r="AF356" s="2" t="s">
+        <v>10086</v>
+      </c>
+      <c r="AG356" s="2" t="s">
+        <v>10087</v>
+      </c>
+      <c r="AH356" s="2" t="s">
+        <v>10088</v>
+      </c>
+      <c r="AI356" s="2" t="s">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="357" spans="1:35" ht="51.5" thickBot="1">
+      <c r="A357" s="5" t="s">
+        <v>10090</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>10091</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>10091</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>10091</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>10092</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>10093</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>10094</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>10095</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>10096</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>10097</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>10098</v>
+      </c>
+      <c r="L357" s="2" t="s">
+        <v>10099</v>
+      </c>
+      <c r="M357" s="2" t="s">
+        <v>10091</v>
+      </c>
+      <c r="N357" s="2" t="s">
+        <v>10100</v>
+      </c>
+      <c r="O357" s="2" t="s">
+        <v>10101</v>
+      </c>
+      <c r="P357" s="2" t="s">
+        <v>10102</v>
+      </c>
+      <c r="Q357" s="2" t="s">
+        <v>10103</v>
+      </c>
+      <c r="R357" s="2" t="s">
+        <v>10104</v>
+      </c>
+      <c r="S357" s="2" t="s">
+        <v>10105</v>
+      </c>
+      <c r="T357" s="2" t="s">
+        <v>10106</v>
+      </c>
+      <c r="U357" s="2" t="s">
+        <v>10107</v>
+      </c>
+      <c r="V357" s="2" t="s">
+        <v>10108</v>
+      </c>
+      <c r="W357" s="2" t="s">
+        <v>10109</v>
+      </c>
+      <c r="X357" s="2" t="s">
+        <v>10110</v>
+      </c>
+      <c r="Y357" s="2" t="s">
+        <v>10111</v>
+      </c>
+      <c r="Z357" s="2" t="s">
+        <v>10112</v>
+      </c>
+      <c r="AA357" s="2" t="s">
+        <v>10113</v>
+      </c>
+      <c r="AB357" s="2" t="s">
+        <v>10114</v>
+      </c>
+      <c r="AC357" s="2" t="s">
+        <v>10115</v>
+      </c>
+      <c r="AD357" s="2" t="s">
+        <v>10116</v>
+      </c>
+      <c r="AE357" s="2" t="s">
+        <v>10117</v>
+      </c>
+      <c r="AF357" s="2" t="s">
+        <v>10118</v>
+      </c>
+      <c r="AG357" s="2" t="s">
+        <v>10119</v>
+      </c>
+      <c r="AH357" s="2" t="s">
+        <v>10120</v>
+      </c>
+      <c r="AI357" s="2" t="s">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="358" spans="1:35" ht="127" thickBot="1">
+      <c r="A358" s="5" t="s">
+        <v>10122</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>10123</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>10123</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>10123</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>10124</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>10125</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>10126</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>10127</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>10128</v>
+      </c>
+      <c r="J358" s="2" t="s">
+        <v>10129</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>10130</v>
+      </c>
+      <c r="L358" s="2" t="s">
+        <v>10131</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>10123</v>
+      </c>
+      <c r="N358" s="2" t="s">
+        <v>10132</v>
+      </c>
+      <c r="O358" s="2" t="s">
+        <v>10133</v>
+      </c>
+      <c r="P358" s="2" t="s">
+        <v>10134</v>
+      </c>
+      <c r="Q358" s="2" t="s">
+        <v>10135</v>
+      </c>
+      <c r="R358" s="2" t="s">
+        <v>10136</v>
+      </c>
+      <c r="S358" s="2" t="s">
+        <v>10137</v>
+      </c>
+      <c r="T358" s="2" t="s">
+        <v>10138</v>
+      </c>
+      <c r="U358" s="2" t="s">
+        <v>10139</v>
+      </c>
+      <c r="V358" s="2" t="s">
+        <v>10140</v>
+      </c>
+      <c r="W358" s="2" t="s">
+        <v>10141</v>
+      </c>
+      <c r="X358" s="2" t="s">
+        <v>10142</v>
+      </c>
+      <c r="Y358" s="2" t="s">
+        <v>10143</v>
+      </c>
+      <c r="Z358" s="2" t="s">
+        <v>10144</v>
+      </c>
+      <c r="AA358" s="2" t="s">
+        <v>10145</v>
+      </c>
+      <c r="AB358" s="2" t="s">
+        <v>10146</v>
+      </c>
+      <c r="AC358" s="2" t="s">
+        <v>10147</v>
+      </c>
+      <c r="AD358" s="2" t="s">
+        <v>10148</v>
+      </c>
+      <c r="AE358" s="2" t="s">
+        <v>10149</v>
+      </c>
+      <c r="AF358" s="2" t="s">
+        <v>10150</v>
+      </c>
+      <c r="AG358" s="2" t="s">
+        <v>10151</v>
+      </c>
+      <c r="AH358" s="2" t="s">
+        <v>10152</v>
+      </c>
+      <c r="AI358" s="2" t="s">
+        <v>10153</v>
+      </c>
+    </row>
+    <row r="359" spans="1:35" ht="101.5" thickBot="1">
+      <c r="A359" s="5" t="s">
+        <v>10154</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>10155</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>10155</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>10155</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>10156</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>10157</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>10158</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>10159</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>10160</v>
+      </c>
+      <c r="J359" s="2" t="s">
+        <v>10161</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>10162</v>
+      </c>
+      <c r="L359" s="2" t="s">
+        <v>10163</v>
+      </c>
+      <c r="M359" s="2" t="s">
+        <v>10155</v>
+      </c>
+      <c r="N359" s="2" t="s">
+        <v>10164</v>
+      </c>
+      <c r="O359" s="2" t="s">
+        <v>10165</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>10166</v>
+      </c>
+      <c r="Q359" s="2" t="s">
+        <v>10167</v>
+      </c>
+      <c r="R359" s="2" t="s">
+        <v>10168</v>
+      </c>
+      <c r="S359" s="2" t="s">
+        <v>10169</v>
+      </c>
+      <c r="T359" s="2" t="s">
+        <v>10170</v>
+      </c>
+      <c r="U359" s="2" t="s">
+        <v>10171</v>
+      </c>
+      <c r="V359" s="2" t="s">
+        <v>10172</v>
+      </c>
+      <c r="W359" s="2" t="s">
+        <v>10173</v>
+      </c>
+      <c r="X359" s="2" t="s">
+        <v>10174</v>
+      </c>
+      <c r="Y359" s="2" t="s">
+        <v>10175</v>
+      </c>
+      <c r="Z359" s="2" t="s">
+        <v>10176</v>
+      </c>
+      <c r="AA359" s="2" t="s">
+        <v>10177</v>
+      </c>
+      <c r="AB359" s="2" t="s">
+        <v>10178</v>
+      </c>
+      <c r="AC359" s="2" t="s">
+        <v>10179</v>
+      </c>
+      <c r="AD359" s="2" t="s">
+        <v>10180</v>
+      </c>
+      <c r="AE359" s="2" t="s">
+        <v>10181</v>
+      </c>
+      <c r="AF359" s="2" t="s">
+        <v>10182</v>
+      </c>
+      <c r="AG359" s="2" t="s">
+        <v>10183</v>
+      </c>
+      <c r="AH359" s="2" t="s">
+        <v>10184</v>
+      </c>
+      <c r="AI359" s="2" t="s">
+        <v>10185</v>
       </c>
     </row>
   </sheetData>
